--- a/second to ass time.xlsx
+++ b/second to ass time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lee7723-laptop\d\OneDrive - lijingze\文档\Video Encoding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - lijingze\文档\Video Encoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC1F87-B0B8-4384-9190-93E4E4E7DE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F7D7CF-74FB-4F87-A328-4C977346B1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9264" yWindow="1356" windowWidth="15300" windowHeight="15060" xr2:uid="{C5729345-2D38-4CFC-8151-5457CD233909}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5729345-2D38-4CFC-8151-5457CD233909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47730BE7-471D-4AA3-9A4D-57430699CE36}">
   <dimension ref="A1:C536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="F403" sqref="F403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -401,6970 +397,6553 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.92400000000000004</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="B1" t="str">
         <f>TEXT(ROUNDDOWN(A1/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A1/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A1,60),3),"00.000")</f>
-        <v>0:00:00.924</v>
+        <v>0:00:17.080</v>
       </c>
       <c r="C1" t="str">
         <f>"Dialogue: 2,"&amp;B1&amp;","&amp;B2&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:00.924,0:00:01.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:17.080,0:00:21.830,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.92</v>
+        <v>21.83</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">TEXT(ROUNDDOWN(A2/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A2/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A2,60),3),"00.000")</f>
-        <v>0:00:01.920</v>
+        <v>0:00:21.830</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="1">"Dialogue: 2,"&amp;B2&amp;","&amp;B3&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:01.920,0:00:03.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:21.830,0:00:24.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.24</v>
+        <v>24</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:03.240</v>
+        <v>0:00:24.000</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:03.240,0:00:04.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:24.000,0:00:29.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.04</v>
+        <v>29.36</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:04.040</v>
+        <v>0:00:29.360</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:04.040,0:00:05.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:29.360,0:00:30.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.4</v>
+        <v>30.48</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:05.400</v>
+        <v>0:00:30.480</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:05.400,0:00:06.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:30.480,0:00:31.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6.4</v>
+        <v>31.2</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:06.400</v>
+        <v>0:00:31.200</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:06.400,0:00:07.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:31.200,0:00:32.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7.68</v>
+        <v>32.28</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:07.680</v>
+        <v>0:00:32.280</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:07.680,0:00:08.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:32.280,0:00:33.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8.9600000000000009</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:08.960</v>
+        <v>0:00:33.520</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:08.960,0:00:09.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:33.520,0:00:34.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9.8800000000000008</v>
+        <v>34.08</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:09.880</v>
+        <v>0:00:34.080</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:09.880,0:00:11.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:34.080,0:00:36.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11.4</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:11.400</v>
+        <v>0:00:36.160</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:11.400,0:00:13.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:36.160,0:00:37.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13.2</v>
+        <v>37.24</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:13.200</v>
+        <v>0:00:37.240</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:13.200,0:00:15.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:37.240,0:00:38.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15.52</v>
+        <v>38.92</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:15.520</v>
+        <v>0:00:38.920</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:15.520,0:00:16.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:38.920,0:00:40.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16.36</v>
+        <v>40.44</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:16.360</v>
+        <v>0:00:40.440</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:16.360,0:00:17.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:40.440,0:00:42.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17.239999999999998</v>
+        <v>42.28</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:17.240</v>
+        <v>0:00:42.280</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:17.240,0:00:18.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:42.280,0:00:43.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18</v>
+        <v>43.96</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:18.000</v>
+        <v>0:00:43.960</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:18.000,0:00:18.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:43.960,0:00:45.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>18.84</v>
+        <v>45.28</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:18.840</v>
+        <v>0:00:45.280</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:18.840,0:00:22.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:45.280,0:00:45.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>22.84</v>
+        <v>45.8</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:22.840</v>
+        <v>0:00:45.800</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:22.840,0:00:24.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:45.800,0:00:46.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>24.16</v>
+        <v>46.2</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:24.160</v>
+        <v>0:00:46.200</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:24.160,0:00:25.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:46.200,0:00:46.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>25.48</v>
+        <v>46.64</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:25.480</v>
+        <v>0:00:46.640</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:25.480,0:00:26.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:46.640,0:00:47.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>26.68</v>
+        <v>47.92</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:26.680</v>
+        <v>0:00:47.920</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:26.680,0:00:27.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:47.920,0:00:49.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>27.84</v>
+        <v>49.28</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:27.840</v>
+        <v>0:00:49.280</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:27.840,0:00:29.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:49.280,0:00:52.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>29.28</v>
+        <v>52.32</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:29.280</v>
+        <v>0:00:52.320</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:29.280,0:00:29.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:52.320,0:00:54.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>29.88</v>
+        <v>54.44</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:29.880</v>
+        <v>0:00:54.440</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:29.880,0:00:31.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:54.440,0:00:56.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>31.32</v>
+        <v>56.2</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:31.320</v>
+        <v>0:00:56.200</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:31.320,0:00:31.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:56.200,0:00:56.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>31.92</v>
+        <v>56.84</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:31.920</v>
+        <v>0:00:56.840</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:31.920,0:00:32.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:56.840,0:00:57.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>32.6</v>
+        <v>57.76</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:32.600</v>
+        <v>0:00:57.760</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:32.600,0:00:33.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:57.760,0:01:06.230,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>33.479999999999997</v>
+        <v>66.23</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:33.480</v>
+        <v>0:01:06.230</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:33.480,0:00:34.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:06.230,0:01:06.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>34.520000000000003</v>
+        <v>66.84</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:34.520</v>
+        <v>0:01:06.840</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:34.520,0:00:35.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:06.840,0:01:10.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>35.24</v>
+        <v>70.56</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:35.240</v>
+        <v>0:01:10.560</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:35.240,0:00:36.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:10.560,0:01:11.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>36.32</v>
+        <v>71.8</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:36.320</v>
+        <v>0:01:11.800</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:36.320,0:00:37.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:11.800,0:01:12.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>37.32</v>
+        <v>72.88</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:37.320</v>
+        <v>0:01:12.880</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:37.320,0:00:38.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:12.880,0:01:13.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>38.04</v>
+        <v>73.52</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:38.040</v>
+        <v>0:01:13.520</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:38.040,0:00:39.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:13.520,0:01:15.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>39.119999999999997</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:39.120</v>
+        <v>0:01:15.240</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:39.120,0:00:40.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:15.240,0:01:16.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>40.159999999999997</v>
+        <v>76.72</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:40.160</v>
+        <v>0:01:16.720</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:40.160,0:00:41.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:16.720,0:01:17.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>41.88</v>
+        <v>77.56</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:41.880</v>
+        <v>0:01:17.560</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:41.880,0:00:43.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:17.560,0:01:21.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>43.2</v>
+        <v>81.28</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:43.200</v>
+        <v>0:01:21.280</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:43.200,0:00:44.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:21.280,0:01:21.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>44.36</v>
+        <v>81.72</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:44.360</v>
+        <v>0:01:21.720</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:44.360,0:00:46.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:21.720,0:01:22.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>46.28</v>
+        <v>82.44</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:46.280</v>
+        <v>0:01:22.440</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:46.280,0:00:46.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:22.440,0:01:23.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46.92</v>
+        <v>83.48</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:46.920</v>
+        <v>0:01:23.480</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:46.920,0:00:48.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:23.480,0:01:24.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:48.000</v>
+        <v>0:01:24.000</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:48.000,0:00:48.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:24.000,0:01:25.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>48.6</v>
+        <v>85.16</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:48.600</v>
+        <v>0:01:25.160</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:48.600,0:00:49.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:25.160,0:01:25.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>49.76</v>
+        <v>85.68</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:49.760</v>
+        <v>0:01:25.680</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:49.760,0:00:51.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:25.680,0:01:26.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>51.32</v>
+        <v>86.16</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:51.320</v>
+        <v>0:01:26.160</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:51.320,0:00:52.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:26.160,0:01:27.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>52.64</v>
+        <v>87.28</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:52.640</v>
+        <v>0:01:27.280</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:52.640,0:00:53.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:27.280,0:01:28.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>53.72</v>
+        <v>88.04</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:53.720</v>
+        <v>0:01:28.040</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:53.720,0:00:54.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:28.040,0:01:29.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>54.36</v>
+        <v>89.08</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:54.360</v>
+        <v>0:01:29.080</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:54.360,0:00:54.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:29.080,0:01:29.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>54.88</v>
+        <v>89.8</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:54.880</v>
+        <v>0:01:29.800</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:54.880,0:00:55.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:29.800,0:01:30.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>55.68</v>
+        <v>90.92</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:55.680</v>
+        <v>0:01:30.920</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:55.680,0:00:57.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:30.920,0:01:32.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>57</v>
+        <v>92.4</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:57.000</v>
+        <v>0:01:32.400</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:57.000,0:00:57.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:32.400,0:01:34.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>57.84</v>
+        <v>94.28</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:57.840</v>
+        <v>0:01:34.280</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:57.840,0:00:58.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:34.280,0:01:35.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>58.44</v>
+        <v>95.04</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:58.440</v>
+        <v>0:01:35.040</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:58.440,0:00:59.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:35.040,0:01:35.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>59.88</v>
+        <v>95.96</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:59.880</v>
+        <v>0:01:35.960</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:59.880,0:01:00.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:35.960,0:01:36.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>60.56</v>
+        <v>96.68</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:00.560</v>
+        <v>0:01:36.680</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:00.560,0:01:01.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:36.680,0:01:37.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>61.36</v>
+        <v>97.2</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:01.360</v>
+        <v>0:01:37.200</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:01.360,0:01:02.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:37.200,0:01:38.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>62.16</v>
+        <v>98.44</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:02.160</v>
+        <v>0:01:38.440</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:02.160,0:01:03.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:38.440,0:01:41.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>63.04</v>
+        <v>101.2</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:03.040</v>
+        <v>0:01:41.200</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:03.040,0:01:03.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:41.200,0:01:42.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>63.6</v>
+        <v>102.16</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:03.600</v>
+        <v>0:01:42.160</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:03.600,0:01:04.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:42.160,0:01:42.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>64.760000000000005</v>
+        <v>102.84</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:04.760</v>
+        <v>0:01:42.840</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:04.760,0:01:05.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:42.840,0:01:43.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>65.599999999999994</v>
+        <v>103.4</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:05.600</v>
+        <v>0:01:43.400</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:05.600,0:01:06.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:43.400,0:01:44.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>66.319999999999993</v>
+        <v>104.12</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:06.320</v>
+        <v>0:01:44.120</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:06.320,0:01:07.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:44.120,0:01:45.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>67.400000000000006</v>
+        <v>105.08</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:07.400</v>
+        <v>0:01:45.080</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:07.400,0:01:08.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:45.080,0:01:45.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>68.52</v>
+        <v>105.72</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:08.520</v>
+        <v>0:01:45.720</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:08.520,0:01:09.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:45.720,0:01:46.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>69.040000000000006</v>
+        <v>106.68</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:09.040</v>
+        <v>0:01:46.680</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:09.040,0:01:09.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:46.680,0:01:47.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>69.680000000000007</v>
+        <v>107.92</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:09.680</v>
+        <v>0:01:47.920</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:09.680,0:01:10.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:47.920,0:01:48.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>70.400000000000006</v>
+        <v>108.96</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:10.400</v>
+        <v>0:01:48.960</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:10.400,0:01:11.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:48.960,0:01:50.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>71.760000000000005</v>
+        <v>110.12</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="2">TEXT(ROUNDDOWN(A66/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A66/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A66,60),3),"00.000")</f>
-        <v>0:01:11.760</v>
+        <v>0:01:50.120</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C129" si="3">"Dialogue: 2,"&amp;B66&amp;","&amp;B67&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:01:11.760,0:01:12.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:50.120,0:01:51.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>72.400000000000006</v>
+        <v>111.36</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:12.400</v>
+        <v>0:01:51.360</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:12.400,0:01:13.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:51.360,0:01:52.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>73.319999999999993</v>
+        <v>112.08</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:13.320</v>
+        <v>0:01:52.080</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:13.320,0:01:14.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:52.080,0:01:52.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>74.760000000000005</v>
+        <v>112.8</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:14.760</v>
+        <v>0:01:52.800</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:14.760,0:01:15.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:52.800,0:01:54.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>75.8</v>
+        <v>114.24</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:15.800</v>
+        <v>0:01:54.240</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:15.800,0:01:16.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:54.240,0:01:54.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>76.84</v>
+        <v>114.92</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:16.840</v>
+        <v>0:01:54.920</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:16.840,0:01:18.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:54.920,0:01:55.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>78</v>
+        <v>115.48</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:18.000</v>
+        <v>0:01:55.480</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:18.000,0:01:19.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:55.480,0:01:56.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>79.239999999999995</v>
+        <v>116.84</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:19.240</v>
+        <v>0:01:56.840</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:19.240,0:01:19.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:56.840,0:01:58.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>79.92</v>
+        <v>118.56</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:19.920</v>
+        <v>0:01:58.560</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:19.920,0:01:21.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:58.560,3:200:13.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>81.36</v>
+        <v>12013</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:21.360</v>
+        <v>3:200:13.000</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:21.360,0:01:22.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,3:200:13.000,0:02:04.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>82.8</v>
+        <v>124.8</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:22.800</v>
+        <v>0:02:04.800</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:22.800,0:01:24.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:04.800,0:02:05.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>84.2</v>
+        <v>125.84</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:24.200</v>
+        <v>0:02:05.840</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:24.200,0:01:25.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:05.840,0:02:06.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>85.72</v>
+        <v>126.72</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:25.720</v>
+        <v>0:02:06.720</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:25.720,0:01:29.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:06.720,0:02:08.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>89.72</v>
+        <v>128.28</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:29.720</v>
+        <v>0:02:08.280</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:29.720,0:01:30.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:08.280,0:02:09.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>90.28</v>
+        <v>129.04</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:30.280</v>
+        <v>0:02:09.040</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:30.280,0:01:31.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:09.040,0:02:09.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>91.6</v>
+        <v>129.76</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:31.600</v>
+        <v>0:02:09.760</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:31.600,0:01:33.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:09.760,0:02:10.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>93.16</v>
+        <v>130.6</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:33.160</v>
+        <v>0:02:10.600</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:33.160,0:01:33.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:10.600,0:02:17.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>93.76</v>
+        <v>137.4</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:33.760</v>
+        <v>0:02:17.400</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:33.760,0:01:34.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:17.400,0:02:18.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>94.68</v>
+        <v>138.44</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:34.680</v>
+        <v>0:02:18.440</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:34.680,0:01:35.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:18.440,0:02:19.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>95.84</v>
+        <v>139.08000000000001</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:35.840</v>
+        <v>0:02:19.080</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:35.840,0:01:36.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:19.080,0:02:19.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>96.8</v>
+        <v>139.47999999999999</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:36.800</v>
+        <v>0:02:19.480</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:36.800,0:01:38.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:19.480,0:02:20.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>98</v>
+        <v>140.28</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:38.000</v>
+        <v>0:02:20.280</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:38.000,0:01:40.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:20.280,0:02:20.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>100.92</v>
+        <v>140.72</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:40.920</v>
+        <v>0:02:20.720</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:40.920,0:01:42.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:20.720,0:02:22.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>102.04</v>
+        <v>142.28</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:42.040</v>
+        <v>0:02:22.280</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:42.040,0:01:42.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:22.280,0:02:23.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>102.4</v>
+        <v>143.63999999999999</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:42.400</v>
+        <v>0:02:23.640</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:42.400,0:01:43.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:23.640,0:02:27.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>103.76</v>
+        <v>147.96</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:43.760</v>
+        <v>0:02:27.960</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:43.760,0:01:45.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:27.960,0:02:32.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>105.04</v>
+        <v>152.36000000000001</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:45.040</v>
+        <v>0:02:32.360</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:45.040,0:01:46.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:32.360,0:02:33.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>106.2</v>
+        <v>153.04</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:46.200</v>
+        <v>0:02:33.040</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:46.200,0:01:47.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:33.040,0:02:33.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>107.4</v>
+        <v>153.88</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:47.400</v>
+        <v>0:02:33.880</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:47.400,0:01:48.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:33.880,0:02:40.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>108.68</v>
+        <v>160.4</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:48.680</v>
+        <v>0:02:40.400</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:48.680,0:01:50.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:40.400,0:02:46.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>110</v>
+        <v>166.44</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:50.000</v>
+        <v>0:02:46.440</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:50.000,0:01:51.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:46.440,0:02:46.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>111.44</v>
+        <v>166.48</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:51.440</v>
+        <v>0:02:46.480</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:51.440,0:01:53.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:46.480,0:02:47.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>113.36</v>
+        <v>167.84</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:53.360</v>
+        <v>0:02:47.840</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:53.360,0:01:54.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:47.840,4:281:53.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>114.84</v>
+        <v>16913</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:54.840</v>
+        <v>4:281:53.000</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:54.840,0:01:55.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,4:281:53.000,0:02:50.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>115.6</v>
+        <v>170.24</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:55.600</v>
+        <v>0:02:50.240</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:55.600,0:01:57.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:50.240,0:02:51.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>117.52</v>
+        <v>171.48</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:57.520</v>
+        <v>0:02:51.480</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:57.520,0:01:58.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:51.480,0:02:52.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>118.68</v>
+        <v>172.12</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:58.680</v>
+        <v>0:02:52.120</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:58.680,0:02:00.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:52.120,0:02:53.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>120.28</v>
+        <v>173.64</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:00.280</v>
+        <v>0:02:53.640</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:00.280,0:02:01.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:53.640,0:02:54.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>121.6</v>
+        <v>174.92</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:01.600</v>
+        <v>0:02:54.920</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:01.600,0:02:02.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:54.920,0:02:58.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>122.32</v>
+        <v>178.56</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:02.320</v>
+        <v>0:02:58.560</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:02.320,0:02:02.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:58.560,0:03:02.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>122.84</v>
+        <v>182.6</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:02.840</v>
+        <v>0:03:02.600</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:02.840,0:02:04.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:02.600,0:03:04.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>124.52</v>
+        <v>184.04</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:04.520</v>
+        <v>0:03:04.040</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:04.520,0:02:06.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:04.040,0:03:05.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>126.24</v>
+        <v>185.32</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:06.240</v>
+        <v>0:03:05.320</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:06.240,0:02:06.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:05.320,0:03:06.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>126.92</v>
+        <v>186.32</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:06.920</v>
+        <v>0:03:06.320</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:06.920,0:02:08.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:06.320,0:03:07.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>128.36000000000001</v>
+        <v>187.72</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:08.360</v>
+        <v>0:03:07.720</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:08.360,0:02:12.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:07.720,0:03:08.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>132.28</v>
+        <v>188.32</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:12.280</v>
+        <v>0:03:08.320</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:12.280,0:02:12.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:08.320,0:03:08.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>132.91999999999999</v>
+        <v>188.88</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:12.920</v>
+        <v>0:03:08.880</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:12.920,0:02:14.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:08.880,0:03:09.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>134.16</v>
+        <v>189.88</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:14.160</v>
+        <v>0:03:09.880</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:14.160,0:02:15.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:09.880,0:03:11.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>135.19999999999999</v>
+        <v>191.2</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:15.200</v>
+        <v>0:03:11.200</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:15.200,0:02:16.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:11.200,0:03:12.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>136.08000000000001</v>
+        <v>192.16</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:16.080</v>
+        <v>0:03:12.160</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:16.080,0:02:16.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:12.160,0:03:12.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>136.44</v>
+        <v>192.84</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:16.440</v>
+        <v>0:03:12.840</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:16.440,0:02:17.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:12.840,0:03:13.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>137.12</v>
+        <v>193.76</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:17.120</v>
+        <v>0:03:13.760</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:17.120,0:02:18.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:13.760,0:03:15.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>138.80000000000001</v>
+        <v>195.08</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:18.800</v>
+        <v>0:03:15.080</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:18.800,0:02:19.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:15.080,0:03:16.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>139.68</v>
+        <v>196.24</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:19.680</v>
+        <v>0:03:16.240</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:19.680,0:02:20.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:16.240,0:03:17.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>140.72</v>
+        <v>197.4</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:20.720</v>
+        <v>0:03:17.400</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:20.720,0:02:21.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:17.400,0:03:18.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>141.4</v>
+        <v>198.24</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:21.400</v>
+        <v>0:03:18.240</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:21.400,0:02:22.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:18.240,0:03:19.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>142.16</v>
+        <v>199.36</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:22.160</v>
+        <v>0:03:19.360</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:22.160,0:02:23.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:19.360,0:03:20.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>143.76</v>
+        <v>200.08</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:23.760</v>
+        <v>0:03:20.080</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:23.760,0:02:50.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:20.080,0:03:22.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>170.08</v>
+        <v>202.04</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:50.080</v>
+        <v>0:03:22.040</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:50.080,0:02:55.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:22.040,0:03:23.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>175.04</v>
+        <v>203.4</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:55.040</v>
+        <v>0:03:23.400</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:55.040,0:02:58.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:23.400,0:03:25.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>178.56</v>
+        <v>205.04</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:58.560</v>
+        <v>0:03:25.040</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:58.560,0:03:07.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:25.040,0:03:26.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>187.84</v>
+        <v>206.36</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:07.840</v>
+        <v>0:03:26.360</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:07.840,0:03:08.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:26.360,0:03:27.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>188.92</v>
+        <v>207.56</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:08.920</v>
+        <v>0:03:27.560</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:08.920,0:03:09.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:27.560,0:03:28.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>189.72</v>
+        <v>208.52</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:09.720</v>
+        <v>0:03:28.520</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:09.720,0:03:10.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:28.520,0:03:28.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>190.8</v>
+        <v>208.72</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B193" si="4">TEXT(ROUNDDOWN(A130/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A130/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A130,60),3),"00.000")</f>
-        <v>0:03:10.800</v>
+        <v>0:03:28.720</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" ref="C130:C193" si="5">"Dialogue: 2,"&amp;B130&amp;","&amp;B131&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:03:10.800,0:03:12.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:28.720,0:03:29.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>192.08</v>
+        <v>209.56</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:12.080</v>
+        <v>0:03:29.560</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:12.080,0:03:15.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:29.560,0:03:30.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>195.72</v>
+        <v>210.64</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:15.720</v>
+        <v>0:03:30.640</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:15.720,0:03:15.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:30.640,0:03:31.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>195.88</v>
+        <v>211.84</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:15.880</v>
+        <v>0:03:31.840</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:15.880,0:03:16.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:31.840,0:03:33.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>196.92</v>
+        <v>213.28</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:16.920</v>
+        <v>0:03:33.280</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:16.920,0:03:18.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:33.280,0:03:34.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>198.76</v>
+        <v>214.04</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:18.760</v>
+        <v>0:03:34.040</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:18.760,0:03:19.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:34.040,0:03:34.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>199.76</v>
+        <v>214.6</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:19.760</v>
+        <v>0:03:34.600</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:19.760,0:03:20.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:34.600,0:03:35.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>200.72</v>
+        <v>215.68</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:20.720</v>
+        <v>0:03:35.680</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:20.720,0:03:25.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:35.680,0:03:36.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>205.04</v>
+        <v>216.76</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:25.040</v>
+        <v>0:03:36.760</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:25.040,0:03:26.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:36.760,0:03:38.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>206.32</v>
+        <v>218.16</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:26.320</v>
+        <v>0:03:38.160</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:26.320,0:03:26.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:38.160,0:03:39.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>206.36</v>
+        <v>219.2</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:26.360</v>
+        <v>0:03:39.200</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:26.360,0:03:27.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:39.200,0:03:40.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>207.76</v>
+        <v>220.56</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:27.760</v>
+        <v>0:03:40.560</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:27.760,0:03:28.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:40.560,0:03:41.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>208.24</v>
+        <v>221.2</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:28.240</v>
+        <v>0:03:41.200</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:28.240,0:03:29.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:41.200,0:03:41.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>209.56</v>
+        <v>221.96</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:29.560</v>
+        <v>0:03:41.960</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:29.560,0:03:30.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:41.960,0:03:43.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>210.56</v>
+        <v>223.44</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:30.560</v>
+        <v>0:03:43.440</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:30.560,0:03:32.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:43.440,0:03:44.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>212.08</v>
+        <v>224.72</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:32.080</v>
+        <v>0:03:44.720</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:32.080,0:03:33.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:44.720,0:03:46.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>213.12</v>
+        <v>226.08</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:33.120</v>
+        <v>0:03:46.080</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:33.120,0:03:34.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:46.080,0:03:47.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>214.2</v>
+        <v>227.8</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:34.200</v>
+        <v>0:03:47.800</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:34.200,0:03:35.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:47.800,0:03:48.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>215.2</v>
+        <v>228.84</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:35.200</v>
+        <v>0:03:48.840</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:35.200,0:03:35.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:48.840,0:03:50.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>215.96</v>
+        <v>230.08</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:35.960</v>
+        <v>0:03:50.080</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:35.960,0:03:37.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:50.080,0:03:53.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>217.68</v>
+        <v>233.44</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:37.680</v>
+        <v>0:03:53.440</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:37.680,0:03:38.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:53.440,0:03:54.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>218.4</v>
+        <v>234.68</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:38.400</v>
+        <v>0:03:54.680</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:38.400,0:03:38.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:54.680,0:03:55.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>218.44</v>
+        <v>235.64</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:38.440</v>
+        <v>0:03:55.640</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:38.440,0:03:38.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:55.640,0:03:57.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>218.84</v>
+        <v>237.08</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:38.840</v>
+        <v>0:03:57.080</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:38.840,0:03:40.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:57.080,0:03:58.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>220.8</v>
+        <v>238.2</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:40.800</v>
+        <v>0:03:58.200</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:40.800,0:03:42.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:58.200,0:03:59.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>222.08</v>
+        <v>239.56</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:42.080</v>
+        <v>0:03:59.560</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:42.080,0:03:42.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:59.560,0:04:00.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>222.6</v>
+        <v>240.6</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:42.600</v>
+        <v>0:04:00.600</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:42.600,0:03:43.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:00.600,0:04:01.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>223.84</v>
+        <v>241.6</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:43.840</v>
+        <v>0:04:01.600</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:43.840,0:03:44.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:01.600,0:04:02.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>224.48</v>
+        <v>242.48</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:44.480</v>
+        <v>0:04:02.480</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:44.480,0:03:45.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:02.480,0:04:06.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>225.44</v>
+        <v>246.32</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:45.440</v>
+        <v>0:04:06.320</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:45.440,0:03:46.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:06.320,0:04:07.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>226.76</v>
+        <v>247.48</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:46.760</v>
+        <v>0:04:07.480</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:46.760,0:03:48.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:07.480,0:04:08.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>228.48</v>
+        <v>248.32</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:48.480</v>
+        <v>0:04:08.320</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:48.480,0:03:50.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:08.320,0:04:09.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>230.6</v>
+        <v>249.08</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:50.600</v>
+        <v>0:04:09.080</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:50.600,0:03:50.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:09.080,0:04:10.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>230.64</v>
+        <v>250.16</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:50.640</v>
+        <v>0:04:10.160</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:50.640,0:03:51.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:10.160,0:04:11.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>231.44</v>
+        <v>251.12</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:51.440</v>
+        <v>0:04:11.120</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:51.440,0:03:52.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:11.120,0:04:12.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>232.48</v>
+        <v>252.2</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:52.480</v>
+        <v>0:04:12.200</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:52.480,0:03:53.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:12.200,0:04:13.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>233.72</v>
+        <v>253.28</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:53.720</v>
+        <v>0:04:13.280</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:53.720,0:03:54.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:13.280,0:04:14.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>234.64</v>
+        <v>254.16</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:54.640</v>
+        <v>0:04:14.160</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:54.640,0:03:55.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:14.160,0:04:16.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>235.6</v>
+        <v>256.04000000000002</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:55.600</v>
+        <v>0:04:16.040</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:55.600,0:03:56.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:16.040,0:04:16.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>236.44</v>
+        <v>256.68</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:56.440</v>
+        <v>0:04:16.680</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:56.440,0:03:57.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:16.680,0:04:17.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>237.2</v>
+        <v>257.24</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:57.200</v>
+        <v>0:04:17.240</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:57.200,0:03:59.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:17.240,0:04:17.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>239.28</v>
+        <v>257.92</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:59.280</v>
+        <v>0:04:17.920</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:59.280,0:03:59.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:17.920,0:04:18.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>239.8</v>
+        <v>258.27999999999997</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:59.800</v>
+        <v>0:04:18.280</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:59.800,0:04:00.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:18.280,0:04:19.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>240.24</v>
+        <v>259.2</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:00.240</v>
+        <v>0:04:19.200</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:00.240,0:04:01.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:19.200,0:04:20.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>241.04</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:01.040</v>
+        <v>0:04:20.400</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:01.040,0:04:01.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:20.400,0:04:20.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>241.48</v>
+        <v>260.95999999999998</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:01.480</v>
+        <v>0:04:20.960</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:01.480,0:04:04.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:20.960,0:04:22.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>244</v>
+        <v>262.2</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:04.000</v>
+        <v>0:04:22.200</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:04.000,0:04:05.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:22.200,0:04:22.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>245.48</v>
+        <v>262.64</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:05.480</v>
+        <v>0:04:22.640</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:05.480,0:04:06.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:22.640,0:04:23.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>246.28</v>
+        <v>263.68</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:06.280</v>
+        <v>0:04:23.680</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:06.280,0:04:07.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:23.680,0:04:24.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>247.6</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:07.600</v>
+        <v>0:04:24.960</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:07.600,0:04:07.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:24.960,0:04:25.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>247.76</v>
+        <v>265.8</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:07.760</v>
+        <v>0:04:25.800</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:07.760,0:04:09.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:25.800,0:04:27.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>249.04</v>
+        <v>267.04000000000002</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:09.040</v>
+        <v>0:04:27.040</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:09.040,0:04:10.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:27.040,0:04:29.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>250.04</v>
+        <v>269.76</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:10.040</v>
+        <v>0:04:29.760</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:10.040,0:04:11.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:29.760,0:04:30.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>251.64</v>
+        <v>270.52</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:11.640</v>
+        <v>0:04:30.520</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:11.640,0:04:13.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:30.520,0:04:32.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>253.44</v>
+        <v>272.04000000000002</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:13.440</v>
+        <v>0:04:32.040</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:13.440,0:04:14.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:32.040,0:04:33.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>254.04</v>
+        <v>273.72000000000003</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:14.040</v>
+        <v>0:04:33.720</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:14.040,0:04:15.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:33.720,0:04:35.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>255.36</v>
+        <v>275.16000000000003</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:15.360</v>
+        <v>0:04:35.160</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:15.360,0:04:15.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:35.160,0:04:35.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>255.76</v>
+        <v>275.8</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:15.760</v>
+        <v>0:04:35.800</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:15.760,0:04:16.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:35.800,0:04:36.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>256.48</v>
+        <v>276.92</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:16.480</v>
+        <v>0:04:36.920</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:16.480,0:04:17.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:36.920,0:04:38.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>257.95999999999998</v>
+        <v>278.32</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:17.960</v>
+        <v>0:04:38.320</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:17.960,0:04:18.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:38.320,0:04:39.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>258.88</v>
+        <v>279.24</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:18.880</v>
+        <v>0:04:39.240</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:18.880,0:04:19.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:39.240,0:04:40.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>259.76</v>
+        <v>280.52</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:19.760</v>
+        <v>0:04:40.520</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:19.760,0:04:20.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:40.520,0:04:42.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>260.32</v>
+        <v>282.12</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:20.320</v>
+        <v>0:04:42.120</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:20.320,0:04:21.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:42.120,0:04:43.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>261.2</v>
+        <v>283.08</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:21.200</v>
+        <v>0:04:43.080</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:21.200,0:04:22.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:43.080,0:04:44.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>262.2</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" ref="B194:B257" si="6">TEXT(ROUNDDOWN(A194/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A194/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A194,60),3),"00.000")</f>
-        <v>0:04:22.200</v>
+        <v>0:04:44.400</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" ref="C194:C257" si="7">"Dialogue: 2,"&amp;B194&amp;","&amp;B195&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:04:22.200,0:04:23.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:44.400,0:04:45.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>263</v>
+        <v>285.64</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:23.000</v>
+        <v>0:04:45.640</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:23.000,0:04:24.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:45.640,0:04:46.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>264.39999999999998</v>
+        <v>286.36</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:24.400</v>
+        <v>0:04:46.360</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:24.400,0:04:25.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:46.360,0:04:48.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>265.83999999999997</v>
+        <v>288.52</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:25.840</v>
+        <v>0:04:48.520</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:25.840,0:04:27.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:48.520,0:04:49.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>267.52</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:27.520</v>
+        <v>0:04:49.600</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:27.520,0:04:29.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:49.600,0:04:50.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>269.04000000000002</v>
+        <v>290.32</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:29.040</v>
+        <v>0:04:50.320</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:29.040,0:04:30.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:50.320,0:04:50.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>270.95999999999998</v>
+        <v>290.88</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:30.960</v>
+        <v>0:04:50.880</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:30.960,0:04:31.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:50.880,0:04:51.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>271.83999999999997</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:31.840</v>
+        <v>0:04:51.600</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:31.840,0:04:31.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:51.600,0:04:52.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>271.95999999999998</v>
+        <v>292.72000000000003</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:31.960</v>
+        <v>0:04:52.720</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:31.960,0:04:32.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:52.720,0:04:53.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>272.27999999999997</v>
+        <v>293.92</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:32.280</v>
+        <v>0:04:53.920</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:32.280,0:04:33.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:53.920,0:04:54.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>273.44</v>
+        <v>294.48</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:33.440</v>
+        <v>0:04:54.480</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:33.440,0:04:34.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:54.480,0:04:55.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>274.8</v>
+        <v>295.52</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:34.800</v>
+        <v>0:04:55.520</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:34.800,0:04:35.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:55.520,0:04:56.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>275.72000000000003</v>
+        <v>296.48</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:35.720</v>
+        <v>0:04:56.480</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:35.720,0:04:37.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:56.480,0:04:57.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>277.2</v>
+        <v>297.92</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:37.200</v>
+        <v>0:04:57.920</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:37.200,0:04:38.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:57.920,0:04:59.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>278.08</v>
+        <v>299.27999999999997</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:38.080</v>
+        <v>0:04:59.280</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:38.080,0:04:40.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:59.280,0:05:01.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>280.48</v>
+        <v>301</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:40.480</v>
+        <v>0:05:01.000</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:40.480,0:04:41.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:01.000,0:05:01.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>281.12</v>
+        <v>301.92</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:41.120</v>
+        <v>0:05:01.920</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:41.120,0:04:42.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:01.920,0:05:02.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>282.44</v>
+        <v>302.52</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:42.440</v>
+        <v>0:05:02.520</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:42.440,0:04:43.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:02.520,8:506:53.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>283.48</v>
+        <v>30413</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:43.480</v>
+        <v>8:506:53.000</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:43.480,0:04:46.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,8:506:53.000,0:05:04.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>286.44</v>
+        <v>304.68</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:46.440</v>
+        <v>0:05:04.680</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:46.440,0:04:47.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:04.680,0:05:05.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>287.95999999999998</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:47.960</v>
+        <v>0:05:05.600</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:47.960,0:04:49.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:05.600,0:05:31.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>289.24</v>
+        <v>331.92</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:49.240</v>
+        <v>0:05:31.920</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:49.240,0:04:51.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:31.920,0:05:32.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>291.24</v>
+        <v>332.92</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:51.240</v>
+        <v>0:05:32.920</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:51.240,0:04:53.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:32.920,0:05:34.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>293.95999999999998</v>
+        <v>334.32</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:53.960</v>
+        <v>0:05:34.320</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:53.960,0:04:58.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:34.320,0:05:35.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>298.2</v>
+        <v>335.2</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:58.200</v>
+        <v>0:05:35.200</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:58.200,0:04:59.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:35.200,0:05:36.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>299.60000000000002</v>
+        <v>336.8</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:59.600</v>
+        <v>0:05:36.800</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:59.600,0:05:01.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:36.800,0:05:38.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>301.36</v>
+        <v>338.32</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:01.360</v>
+        <v>0:05:38.320</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:01.360,0:05:03.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:38.320,0:05:38.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>303.56</v>
+        <v>338.68</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:03.560</v>
+        <v>0:05:38.680</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:03.560,0:05:04.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:38.680,0:05:40.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>304.24</v>
+        <v>340.12</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:04.240</v>
+        <v>0:05:40.120</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:04.240,0:05:06.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:40.120,0:05:41.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>306.52</v>
+        <v>341.2</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:06.520</v>
+        <v>0:05:41.200</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:06.520,0:05:07.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:41.200,0:05:41.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>307.92</v>
+        <v>341.68</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:07.920</v>
+        <v>0:05:41.680</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:07.920,0:05:08.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:41.680,0:05:43.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>308.8</v>
+        <v>343.32</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:08.800</v>
+        <v>0:05:43.320</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:08.800,0:05:10.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:43.320,0:05:44.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>310</v>
+        <v>344.76</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:10.000</v>
+        <v>0:05:44.760</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:10.000,0:05:10.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:44.760,0:05:45.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>310.83999999999997</v>
+        <v>345.92</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:10.840</v>
+        <v>0:05:45.920</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:10.840,0:05:11.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:45.920,0:05:47.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>311.88</v>
+        <v>347.8</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:11.880</v>
+        <v>0:05:47.800</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:11.880,0:05:22.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:47.800,0:05:49.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>322.27999999999997</v>
+        <v>349.12</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:22.280</v>
+        <v>0:05:49.120</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:22.280,0:05:32.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:49.120,0:05:50.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>332.92</v>
+        <v>350.88</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:32.920</v>
+        <v>0:05:50.880</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:32.920,0:05:33.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:50.880,0:05:51.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>333.44</v>
+        <v>351.92</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:33.440</v>
+        <v>0:05:51.920</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:33.440,0:05:34.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:51.920,0:05:52.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>334.2</v>
+        <v>352.36</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:34.200</v>
+        <v>0:05:52.360</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:34.200,0:05:34.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:52.360,0:05:53.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>334.84</v>
+        <v>353.44</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:34.840</v>
+        <v>0:05:53.440</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:34.840,0:05:36.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:53.440,0:05:55.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>336.64</v>
+        <v>355.16</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:36.640</v>
+        <v>0:05:55.160</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:36.640,0:05:55.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:55.160,0:05:56.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>355.48</v>
+        <v>356.32</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:55.480</v>
+        <v>0:05:56.320</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:55.480,0:05:57.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:56.320,0:05:57.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>357.52</v>
+        <v>357.44</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:57.520</v>
+        <v>0:05:57.440</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:57.520,0:05:59.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:57.440,0:05:58.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>359.12</v>
+        <v>358.76</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:59.120</v>
+        <v>0:05:58.760</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:59.120,0:06:00.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:58.760,0:06:00.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>360.44</v>
+        <v>360.68</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:00.440</v>
+        <v>0:06:00.680</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:00.440,0:06:00.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:00.680,0:06:00.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>360.92</v>
+        <v>360.72</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:00.920</v>
+        <v>0:06:00.720</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:00.920,0:06:03.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:00.720,0:06:01.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>363.96</v>
+        <v>361.64</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:03.960</v>
+        <v>0:06:01.640</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:03.960,0:06:06.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:01.640,0:06:02.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>366.16</v>
+        <v>362</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:06.160</v>
+        <v>0:06:02.000</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:06.160,0:06:09.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:02.000,0:06:22.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>369.08</v>
+        <v>382.76</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:09.080</v>
+        <v>0:06:22.760</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:09.080,0:06:09.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:22.760,0:06:24.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>369.84</v>
+        <v>384.52</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:09.840</v>
+        <v>0:06:24.520</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:09.840,0:06:10.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:24.520,0:06:25.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>370.72</v>
+        <v>385.48</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:10.720</v>
+        <v>0:06:25.480</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:10.720,0:06:12.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:25.480,0:06:26.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>372.08</v>
+        <v>386.84</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:12.080</v>
+        <v>0:06:26.840</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:12.080,0:06:13.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:26.840,0:06:27.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>373.24</v>
+        <v>387.64</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:13.240</v>
+        <v>0:06:27.640</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:13.240,0:06:14.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:27.640,0:06:28.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>374.4</v>
+        <v>388.8</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:14.400</v>
+        <v>0:06:28.800</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:14.400,0:06:18.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:28.800,0:06:29.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>378.04</v>
+        <v>389.44</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:18.040</v>
+        <v>0:06:29.440</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:18.040,0:06:35.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:29.440,0:06:30.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>395.08</v>
+        <v>390.36</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:35.080</v>
+        <v>0:06:30.360</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:35.080,0:06:37.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:30.360,0:06:31.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>397.36</v>
+        <v>391.84</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:37.360</v>
+        <v>0:06:31.840</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:37.360,0:06:43.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:31.840,0:06:33.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>403.4</v>
+        <v>393.6</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:43.400</v>
+        <v>0:06:33.600</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:43.400,0:06:45.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:33.600,0:06:34.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>405.28</v>
+        <v>394.32</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:45.280</v>
+        <v>0:06:34.320</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:45.280,0:06:46.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:34.320,0:06:35.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>406.8</v>
+        <v>395.12</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:46.800</v>
+        <v>0:06:35.120</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:46.800,0:06:48.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:35.120,0:06:35.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>408.44</v>
+        <v>395.96</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:48.440</v>
+        <v>0:06:35.960</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:48.440,0:06:49.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:35.960,0:06:37.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>409.64</v>
+        <v>397.24</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:49.640</v>
+        <v>0:06:37.240</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:49.640,0:06:51.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:37.240,0:06:40.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>411.28</v>
+        <v>400</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:51.280</v>
+        <v>0:06:40.000</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:51.280,0:06:52.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:40.000,0:06:40.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>412.2</v>
+        <v>400.68</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:52.200</v>
+        <v>0:06:40.680</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:52.200,0:06:53.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:40.680,0:06:42.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>413.84</v>
+        <v>402.4</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" ref="B258:B321" si="8">TEXT(ROUNDDOWN(A258/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A258/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A258,60),3),"00.000")</f>
-        <v>0:06:53.840</v>
+        <v>0:06:42.400</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C321" si="9">"Dialogue: 2,"&amp;B258&amp;","&amp;B259&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:06:53.840,0:06:59.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:42.400,0:06:43.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>419.04</v>
+        <v>403.96</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:59.040</v>
+        <v>0:06:43.960</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:59.040,0:06:59.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:43.960,0:06:50.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>419.84</v>
+        <v>410.2</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:59.840</v>
+        <v>0:06:50.200</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:59.840,0:07:01.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:50.200,0:06:51.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>421.24</v>
+        <v>411.48</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:01.240</v>
+        <v>0:06:51.480</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:01.240,0:07:02.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:51.480,0:06:52.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>422.28</v>
+        <v>412.72</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:02.280</v>
+        <v>0:06:52.720</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:02.280,0:07:03.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:52.720,0:06:53.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>423.36</v>
+        <v>413.8</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:03.360</v>
+        <v>0:06:53.800</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:03.360,0:07:04.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:53.800,0:06:54.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>424.72</v>
+        <v>414.64</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:04.720</v>
+        <v>0:06:54.640</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:04.720,0:07:05.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:54.640,0:06:55.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>425.52</v>
+        <v>415.52</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:05.520</v>
+        <v>0:06:55.520</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:05.520,0:07:06.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:55.520,0:06:56.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>426.4</v>
+        <v>416.8</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:06.400</v>
+        <v>0:06:56.800</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:06.400,0:07:07.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:56.800,0:06:59.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>427.28</v>
+        <v>419.6</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:07.280</v>
+        <v>0:06:59.600</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:07.280,0:07:08.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:59.600,0:07:00.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>428.2</v>
+        <v>420.44</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:08.200</v>
+        <v>0:07:00.440</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:08.200,0:07:10.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:00.440,0:07:01.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>430.32</v>
+        <v>421.8</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:10.320</v>
+        <v>0:07:01.800</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:10.320,0:07:11.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:01.800,0:07:02.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>431.44</v>
+        <v>422.44</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:11.440</v>
+        <v>0:07:02.440</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:11.440,0:07:12.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:02.440,0:07:03.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>432.36</v>
+        <v>423.48</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:12.360</v>
+        <v>0:07:03.480</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:12.360,0:07:12.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:03.480,0:07:04.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>432.88</v>
+        <v>424.28</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:12.880</v>
+        <v>0:07:04.280</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:12.880,0:07:14.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:04.280,0:07:05.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>434.36</v>
+        <v>425.52</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:14.360</v>
+        <v>0:07:05.520</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:14.360,0:07:15.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:05.520,0:07:06.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>435.72</v>
+        <v>426.2</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:15.720</v>
+        <v>0:07:06.200</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:15.720,0:07:17.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:06.200,0:07:07.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>437.96</v>
+        <v>427.28</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:17.960</v>
+        <v>0:07:07.280</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:17.960,0:07:19.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:07.280,0:07:20.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>439.08</v>
+        <v>440.48</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:19.080</v>
+        <v>0:07:20.480</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:19.080,0:07:20.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:20.480,0:07:20.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>440.04</v>
+        <v>440.92</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:20.040</v>
+        <v>0:07:20.920</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:20.040,0:07:20.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:20.920,0:07:21.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>440.88</v>
+        <v>441.68</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:20.880</v>
+        <v>0:07:21.680</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:20.880,0:07:28.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:21.680,0:07:23.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>448.88</v>
+        <v>443.96</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:28.880</v>
+        <v>0:07:23.960</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:28.880,0:07:30.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:23.960,0:07:25.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>450.04</v>
+        <v>445.16</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:30.040</v>
+        <v>0:07:25.160</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:30.040,0:07:31.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:25.160,0:07:26.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>451.28</v>
+        <v>446.16</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:31.280</v>
+        <v>0:07:26.160</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:31.280,0:07:32.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:26.160,0:07:27.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>452.28</v>
+        <v>447.12</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:32.280</v>
+        <v>0:07:27.120</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:32.280,0:07:33.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:27.120,0:07:28.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>453.56</v>
+        <v>448.8</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:33.560</v>
+        <v>0:07:28.800</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:33.560,0:07:41.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:28.800,0:07:29.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>461.16</v>
+        <v>449.88</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:41.160</v>
+        <v>0:07:29.880</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:41.160,0:07:41.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:29.880,0:07:30.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>461.2</v>
+        <v>450.4</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:41.200</v>
+        <v>0:07:30.400</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:41.200,0:07:44.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:30.400,0:07:31.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>464.52</v>
+        <v>451.72</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:44.520</v>
+        <v>0:07:31.720</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:44.520,0:07:45.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:31.720,0:07:32.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>465.44</v>
+        <v>452.88</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:45.440</v>
+        <v>0:07:32.880</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:45.440,0:07:46.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:32.880,0:07:35.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>466.28</v>
+        <v>455.24</v>
       </c>
       <c r="B288" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:46.280</v>
+        <v>0:07:35.240</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:46.280,0:07:47.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:35.240,0:07:35.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>467.32</v>
+        <v>455.84</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:47.320</v>
+        <v>0:07:35.840</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:47.320,0:07:48.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:35.840,0:07:37.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>468.72</v>
+        <v>457</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:48.720</v>
+        <v>0:07:37.000</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:48.720,0:07:49.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:37.000,0:07:37.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>469.32</v>
+        <v>457.72</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:49.320</v>
+        <v>0:07:37.720</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:49.320,0:07:50.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:37.720,0:07:38.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>470.44</v>
+        <v>458.56</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:50.440</v>
+        <v>0:07:38.560</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:50.440,0:07:50.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:38.560,0:07:39.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>470.56</v>
+        <v>459.2</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:50.560</v>
+        <v>0:07:39.200</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:50.560,0:07:54.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:39.200,0:07:39.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>474.24</v>
+        <v>459.68</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:54.240</v>
+        <v>0:07:39.680</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:54.240,0:07:55.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:39.680,0:07:43.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>475.36</v>
+        <v>463.08</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:55.360</v>
+        <v>0:07:43.080</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:55.360,0:07:56.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:43.080,0:07:44.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>476.92</v>
+        <v>464.04</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:56.920</v>
+        <v>0:07:44.040</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:56.920,0:07:57.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:44.040,0:07:44.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>477.88</v>
+        <v>464.6</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:57.880</v>
+        <v>0:07:44.600</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:57.880,0:07:58.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:44.600,0:07:45.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>478.48</v>
+        <v>465.08</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:58.480</v>
+        <v>0:07:45.080</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:58.480,0:07:59.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:45.080,0:07:45.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>479.4</v>
+        <v>465.68</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:59.400</v>
+        <v>0:07:45.680</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:59.400,0:08:04.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:45.680,0:07:47.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>484.48</v>
+        <v>467.08</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:04.480</v>
+        <v>0:07:47.080</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:04.480,0:08:05.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:47.080,0:07:47.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>485.56</v>
+        <v>467.8</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:05.560</v>
+        <v>0:07:47.800</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:05.560,0:08:06.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:47.800,0:07:48.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>486.48</v>
+        <v>468.92</v>
       </c>
       <c r="B302" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:06.480</v>
+        <v>0:07:48.920</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:06.480,0:08:07.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:48.920,0:07:49.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>487.92</v>
+        <v>469.56</v>
       </c>
       <c r="B303" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:07.920</v>
+        <v>0:07:49.560</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:07.920,0:08:10.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:49.560,0:07:50.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>490.72</v>
+        <v>470.24</v>
       </c>
       <c r="B304" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:10.720</v>
+        <v>0:07:50.240</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:10.720,0:08:11.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:50.240,0:07:50.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>491.12</v>
+        <v>470.84</v>
       </c>
       <c r="B305" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:11.120</v>
+        <v>0:07:50.840</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:11.120,0:08:12.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:50.840,0:07:51.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>492.08</v>
+        <v>471.64</v>
       </c>
       <c r="B306" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:12.080</v>
+        <v>0:07:51.640</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:12.080,0:08:12.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:51.640,0:07:53.040,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>492.76</v>
+        <v>473.04</v>
       </c>
       <c r="B307" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:12.760</v>
+        <v>0:07:53.040</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:12.760,0:08:15.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:53.040,0:07:54.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>495.32</v>
+        <v>474.36</v>
       </c>
       <c r="B308" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:15.320</v>
+        <v>0:07:54.360</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:15.320,0:08:18.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:54.360,0:07:55.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>498.24</v>
+        <v>475.8</v>
       </c>
       <c r="B309" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:18.240</v>
+        <v>0:07:55.800</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:18.240,0:08:19.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:55.800,0:07:57.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>499.52</v>
+        <v>477.24</v>
       </c>
       <c r="B310" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:19.520</v>
+        <v>0:07:57.240</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:19.520,0:08:20.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:57.240,0:07:58.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>500.52</v>
+        <v>478.12</v>
       </c>
       <c r="B311" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:20.520</v>
+        <v>0:07:58.120</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:20.520,0:08:21.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:58.120,0:07:59.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>501.88</v>
+        <v>479.64</v>
       </c>
       <c r="B312" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:21.880</v>
+        <v>0:07:59.640</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:21.880,0:08:22.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:59.640,0:08:00.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>502.2</v>
+        <v>480.72</v>
       </c>
       <c r="B313" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:22.200</v>
+        <v>0:08:00.720</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:22.200,0:08:23.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:00.720,0:08:02.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>503.16</v>
+        <v>482.44</v>
       </c>
       <c r="B314" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:23.160</v>
+        <v>0:08:02.440</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:23.160,0:08:23.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:02.440,0:08:03.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>503.76</v>
+        <v>483</v>
       </c>
       <c r="B315" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:23.760</v>
+        <v>0:08:03.000</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:23.760,0:08:24.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:03.000,0:08:03.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>504.56</v>
+        <v>483.56</v>
       </c>
       <c r="B316" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:24.560</v>
+        <v>0:08:03.560</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:24.560,0:08:25.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:03.560,0:08:14.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>505.68</v>
+        <v>494.56</v>
       </c>
       <c r="B317" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:25.680</v>
+        <v>0:08:14.560</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:25.680,0:08:27.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:14.560,0:08:15.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>507.04</v>
+        <v>495.36</v>
       </c>
       <c r="B318" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:27.040</v>
+        <v>0:08:15.360</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:27.040,0:08:28.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:15.360,0:08:16.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>508.36</v>
+        <v>496.12</v>
       </c>
       <c r="B319" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:28.360</v>
+        <v>0:08:16.120</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:28.360,0:08:30.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:16.120,0:08:17.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>510.76</v>
+        <v>497.4</v>
       </c>
       <c r="B320" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:30.760</v>
+        <v>0:08:17.400</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:30.760,0:08:31.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:17.400,0:08:18.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>511.84</v>
+        <v>498.2</v>
       </c>
       <c r="B321" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:31.840</v>
+        <v>0:08:18.200</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:31.840,0:08:33.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:18.200,0:08:18.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>513.55999999999995</v>
+        <v>498.84</v>
       </c>
       <c r="B322" t="str">
         <f t="shared" ref="B322:B385" si="10">TEXT(ROUNDDOWN(A322/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A322/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A322,60),3),"00.000")</f>
-        <v>0:08:33.560</v>
+        <v>0:08:18.840</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" ref="C322:C385" si="11">"Dialogue: 2,"&amp;B322&amp;","&amp;B323&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:08:33.560,0:08:34.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:18.840,0:08:26.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>514.4</v>
+        <v>506.88</v>
       </c>
       <c r="B323" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:34.400</v>
+        <v>0:08:26.880</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:34.400,0:08:35.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:26.880,0:08:28.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>515.67999999999995</v>
+        <v>508.08</v>
       </c>
       <c r="B324" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:35.680</v>
+        <v>0:08:28.080</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:35.680,0:08:36.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:28.080,0:08:29.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>516.52</v>
+        <v>509.32</v>
       </c>
       <c r="B325" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:36.520</v>
+        <v>0:08:29.320</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:36.520,0:08:37.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:29.320,0:08:30.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>517.16</v>
+        <v>510.44</v>
       </c>
       <c r="B326" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:37.160</v>
+        <v>0:08:30.440</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:37.160,0:08:38.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:30.440,0:08:31.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>518.6</v>
+        <v>511.72</v>
       </c>
       <c r="B327" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:38.600</v>
+        <v>0:08:31.720</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:38.600,0:08:41.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:31.720,0:08:32.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>521.20000000000005</v>
+        <v>512.88</v>
       </c>
       <c r="B328" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:41.200</v>
+        <v>0:08:32.880</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:41.200,0:08:42.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:32.880,0:08:33.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>522.6</v>
+        <v>513.76</v>
       </c>
       <c r="B329" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:42.600</v>
+        <v>0:08:33.760</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:42.600,0:08:44.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:33.760,0:08:34.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>524.96</v>
+        <v>514.64</v>
       </c>
       <c r="B330" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:44.960</v>
+        <v>0:08:34.640</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:44.960,0:09:01.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:34.640,0:08:35.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>541.04</v>
+        <v>515.36</v>
       </c>
       <c r="B331" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:01.040</v>
+        <v>0:08:35.360</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:01.040,0:09:02.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:35.360,0:08:35.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>542.79999999999995</v>
+        <v>515.84</v>
       </c>
       <c r="B332" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:02.800</v>
+        <v>0:08:35.840</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:02.800,0:09:03.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:35.840,0:08:37.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>543.67999999999995</v>
+        <v>517.28</v>
       </c>
       <c r="B333" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:03.680</v>
+        <v>0:08:37.280</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:03.680,0:09:04.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:37.280,0:08:37.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>544.76</v>
+        <v>517.48</v>
       </c>
       <c r="B334" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:04.760</v>
+        <v>0:08:37.480</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:04.760,0:09:06.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:37.480,0:08:38.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>546.55999999999995</v>
+        <v>518.48</v>
       </c>
       <c r="B335" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:06.560</v>
+        <v>0:08:38.480</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:06.560,0:09:08.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:38.480,0:08:39.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>548.4</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="B336" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:08.400</v>
+        <v>0:08:39.200</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:08.400,0:09:10.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:39.200,0:08:40.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>550.12</v>
+        <v>520.67999999999995</v>
       </c>
       <c r="B337" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:10.120</v>
+        <v>0:08:40.680</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:10.120,0:09:11.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:40.680,0:08:41.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>551.08000000000004</v>
+        <v>521.48</v>
       </c>
       <c r="B338" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:11.080</v>
+        <v>0:08:41.480</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:11.080,0:09:12.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:41.480,0:08:42.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>552.20000000000005</v>
+        <v>522.08000000000004</v>
       </c>
       <c r="B339" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:12.200</v>
+        <v>0:08:42.080</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:12.200,0:09:13.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:42.080,0:08:42.960,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>553.24</v>
+        <v>522.96</v>
       </c>
       <c r="B340" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:13.240</v>
+        <v>0:08:42.960</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:13.240,0:09:14.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:42.960,0:08:43.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>554.96</v>
+        <v>523.84</v>
       </c>
       <c r="B341" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:14.960</v>
+        <v>0:08:43.840</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:14.960,0:09:18.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:43.840,0:08:44.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>558.84</v>
+        <v>524.16</v>
       </c>
       <c r="B342" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:18.840</v>
+        <v>0:08:44.160</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:18.840,0:09:19.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:44.160,0:08:45.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>559.67999999999995</v>
+        <v>525.24</v>
       </c>
       <c r="B343" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:19.680</v>
+        <v>0:08:45.240</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:19.680,0:09:20.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:45.240,0:08:46.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>560.76</v>
+        <v>526.24</v>
       </c>
       <c r="B344" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:20.760</v>
+        <v>0:08:46.240</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:20.760,0:09:21.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:46.240,0:08:46.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>561.72</v>
+        <v>526.84</v>
       </c>
       <c r="B345" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:21.720</v>
+        <v>0:08:46.840</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:21.720,0:09:23.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:46.840,0:08:47.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>563.08000000000004</v>
+        <v>527.91999999999996</v>
       </c>
       <c r="B346" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:23.080</v>
+        <v>0:08:47.920</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:23.080,0:09:26.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:47.920,0:08:48.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>566.91999999999996</v>
+        <v>528.88</v>
       </c>
       <c r="B347" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:26.920</v>
+        <v>0:08:48.880</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:26.920,0:09:27.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:48.880,0:08:50.280,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>567.44000000000005</v>
+        <v>530.28</v>
       </c>
       <c r="B348" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:27.440</v>
+        <v>0:08:50.280</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:27.440,0:09:28.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:50.280,14:886:53.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>568.4</v>
+        <v>53213</v>
       </c>
       <c r="B349" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:28.400</v>
+        <v>14:886:53.000</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:28.400,0:09:29.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,14:886:53.000,0:08:53.240,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>569.52</v>
+        <v>533.24</v>
       </c>
       <c r="B350" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:29.520</v>
+        <v>0:08:53.240</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:29.520,0:09:30.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:53.240,0:08:54.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>570.16</v>
+        <v>534.72</v>
       </c>
       <c r="B351" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:30.160</v>
+        <v>0:08:54.720</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:30.160,0:09:31.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:54.720,0:08:55.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>571.48</v>
+        <v>535.44000000000005</v>
       </c>
       <c r="B352" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:31.480</v>
+        <v>0:08:55.440</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:31.480,0:09:32.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:55.440,0:08:56.480,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>572.04</v>
+        <v>536.48</v>
       </c>
       <c r="B353" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:32.040</v>
+        <v>0:08:56.480</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:32.040,0:09:34.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:56.480,0:08:58.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>574.79999999999995</v>
+        <v>538.12</v>
       </c>
       <c r="B354" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:34.800</v>
+        <v>0:08:58.120</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:34.800,0:09:48.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:58.120,0:08:58.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>588.76</v>
+        <v>538.72</v>
       </c>
       <c r="B355" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:48.760</v>
+        <v>0:08:58.720</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:48.760,0:09:51.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:08:58.720,15:900:13.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>591.24</v>
+        <v>54013</v>
       </c>
       <c r="B356" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:51.240</v>
+        <v>15:900:13.000</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:51.240,0:09:51.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,15:900:13.000,0:09:01.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>591.4</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="B357" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:51.400</v>
+        <v>0:09:01.200</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:51.400,0:09:51.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:01.200,0:09:02.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>591.55999999999995</v>
+        <v>542.76</v>
       </c>
       <c r="B358" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:51.560</v>
+        <v>0:09:02.760</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:51.560,0:10:04.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:02.760,0:09:04.320,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>604.88</v>
+        <v>544.32000000000005</v>
       </c>
       <c r="B359" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:04.880</v>
+        <v>0:09:04.320</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:04.880,0:10:05.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:04.320,0:09:05.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>605.16</v>
+        <v>545</v>
       </c>
       <c r="B360" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:05.160</v>
+        <v>0:09:05.000</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:05.160,0:10:08.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:05.000,0:09:07.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>608.32000000000005</v>
+        <v>547.72</v>
       </c>
       <c r="B361" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:08.320</v>
+        <v>0:09:07.720</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:08.320,0:10:09.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:07.720,0:09:08.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>609.4</v>
+        <v>548.4</v>
       </c>
       <c r="B362" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:09.400</v>
+        <v>0:09:08.400</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:09.400,0:10:10.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:08.400,0:09:09.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>610.08000000000004</v>
+        <v>549.52</v>
       </c>
       <c r="B363" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:10.080</v>
+        <v>0:09:09.520</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:10.080,0:10:10.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:09.520,0:09:10.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>610.48</v>
+        <v>550.79999999999995</v>
       </c>
       <c r="B364" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:10.480</v>
+        <v>0:09:10.800</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:10.480,0:10:10.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:10.800,0:09:15.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>610.79999999999995</v>
+        <v>555.20000000000005</v>
       </c>
       <c r="B365" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:10.800</v>
+        <v>0:09:15.200</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:10.800,0:10:22.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:15.200,0:09:16.560,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>622.91999999999996</v>
+        <v>556.55999999999995</v>
       </c>
       <c r="B366" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:22.920</v>
+        <v>0:09:16.560</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:22.920,0:10:23.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:16.560,0:09:18.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>623.72</v>
+        <v>558.08000000000004</v>
       </c>
       <c r="B367" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:23.720</v>
+        <v>0:09:18.080</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:23.720,0:10:29.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:18.080,0:09:19.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>629.4</v>
+        <v>559.20000000000005</v>
       </c>
       <c r="B368" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:29.400</v>
+        <v>0:09:19.200</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:29.400,0:10:32.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:19.200,0:09:20.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>632.4</v>
+        <v>560.44000000000005</v>
       </c>
       <c r="B369" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:32.400</v>
+        <v>0:09:20.440</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:32.400,0:10:33.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:20.440,0:09:20.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>633.52</v>
+        <v>560.84</v>
       </c>
       <c r="B370" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:33.520</v>
+        <v>0:09:20.840</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:33.520,0:10:34.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:20.840,0:09:21.680,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>634.04</v>
+        <v>561.67999999999995</v>
       </c>
       <c r="B371" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:34.040</v>
+        <v>0:09:21.680</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:34.040,0:10:34.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:21.680,0:09:22.840,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>634.76</v>
+        <v>562.84</v>
       </c>
       <c r="B372" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:34.760</v>
+        <v>0:09:22.840</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:34.760,0:10:35.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:22.840,0:09:24.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>635.91999999999996</v>
+        <v>564.20000000000005</v>
       </c>
       <c r="B373" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:35.920</v>
+        <v>0:09:24.200</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:35.920,0:10:36.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:24.200,0:09:25.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>636.76</v>
+        <v>565.20000000000005</v>
       </c>
       <c r="B374" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:36.760</v>
+        <v>0:09:25.200</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:36.760,0:10:38.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:25.200,0:09:26.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>638.04</v>
+        <v>566.08000000000004</v>
       </c>
       <c r="B375" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:38.040</v>
+        <v>0:09:26.080</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:38.040,0:10:38.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:26.080,0:09:32.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>638.08000000000004</v>
+        <v>572.36</v>
       </c>
       <c r="B376" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:38.080</v>
+        <v>0:09:32.360</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:38.080,0:10:39.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:32.360,0:09:33.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>639.24</v>
+        <v>573.64</v>
       </c>
       <c r="B377" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:39.240</v>
+        <v>0:09:33.640</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:39.240,0:10:40.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:33.640,0:09:36.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>640.4</v>
+        <v>576.44000000000005</v>
       </c>
       <c r="B378" t="str">
         <f t="shared" si="10"/>
-        <v>0:10:40.400</v>
+        <v>0:09:36.440</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:10:40.400,0:11:14.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:36.440,0:09:37.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>674.64</v>
+        <v>577.4</v>
       </c>
       <c r="B379" t="str">
         <f t="shared" si="10"/>
-        <v>0:11:14.640</v>
+        <v>0:09:37.400</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:11:14.640,0:11:16.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:37.400,0:09:39.760,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>676.08</v>
+        <v>579.76</v>
       </c>
       <c r="B380" t="str">
         <f t="shared" si="10"/>
-        <v>0:11:16.080</v>
+        <v>0:09:39.760</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:11:16.080,0:11:17.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:39.760,0:09:40.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>677.04</v>
+        <v>580.91999999999996</v>
       </c>
       <c r="B381" t="str">
         <f t="shared" si="10"/>
-        <v>0:11:17.040</v>
+        <v>0:09:40.920</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:11:17.040,0:11:18.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:40.920,0:09:41.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>678.76</v>
+        <v>581.72</v>
       </c>
       <c r="B382" t="str">
         <f t="shared" si="10"/>
-        <v>0:11:18.760</v>
+        <v>0:09:41.720</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:11:18.760,0:11:19.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:41.720,0:09:43.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>679.52</v>
+        <v>583.52</v>
       </c>
       <c r="B383" t="str">
         <f t="shared" si="10"/>
-        <v>0:11:19.520</v>
+        <v>0:09:43.520</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:11:19.520,0:11:20.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:43.520,0:09:45.080,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>680.2</v>
+        <v>585.08000000000004</v>
       </c>
       <c r="B384" t="str">
         <f t="shared" si="10"/>
-        <v>0:11:20.200</v>
+        <v>0:09:45.080</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:11:20.200,0:11:21.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:45.080,0:09:45.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>681.12</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="B385" t="str">
         <f t="shared" si="10"/>
-        <v>0:11:21.120</v>
+        <v>0:09:45.800</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:11:21.120,0:11:22.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:45.800,0:09:46.720,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>682.44</v>
+        <v>586.72</v>
       </c>
       <c r="B386" t="str">
         <f t="shared" ref="B386:B449" si="12">TEXT(ROUNDDOWN(A386/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A386/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A386,60),3),"00.000")</f>
-        <v>0:11:22.440</v>
+        <v>0:09:46.720</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" ref="C386:C413" si="13">"Dialogue: 2,"&amp;B386&amp;","&amp;B387&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:11:22.440,0:11:23.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:46.720,0:09:47.440,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>683.68</v>
+        <v>587.44000000000005</v>
       </c>
       <c r="B387" t="str">
         <f t="shared" si="12"/>
-        <v>0:11:23.680</v>
+        <v>0:09:47.440</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:11:23.680,0:11:27.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:47.440,0:09:48.360,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>687.56</v>
+        <v>588.36</v>
       </c>
       <c r="B388" t="str">
         <f t="shared" si="12"/>
-        <v>0:11:27.560</v>
+        <v>0:09:48.360</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:11:27.560,0:11:28.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:48.360,0:09:48.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>688.04</v>
+        <v>588.88</v>
       </c>
       <c r="B389" t="str">
         <f t="shared" si="12"/>
-        <v>0:11:28.040</v>
+        <v>0:09:48.880</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:11:28.040,0:11:34.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:48.880,0:09:49.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>694.56</v>
+        <v>589.91999999999996</v>
       </c>
       <c r="B390" t="str">
         <f t="shared" si="12"/>
-        <v>0:11:34.560</v>
+        <v>0:09:49.920</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:11:34.560,0:11:46.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:49.920,0:09:50.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>706.92</v>
+        <v>590.6</v>
       </c>
       <c r="B391" t="str">
         <f t="shared" si="12"/>
-        <v>0:11:46.920</v>
+        <v>0:09:50.600</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:11:46.920,0:12:16.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:50.600,0:09:51.640,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>736.08</v>
+        <v>591.64</v>
       </c>
       <c r="B392" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:16.080</v>
+        <v>0:09:51.640</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:16.080,0:12:17.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:51.640,0:09:52.160,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>737.76</v>
+        <v>592.16</v>
       </c>
       <c r="B393" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:17.760</v>
+        <v>0:09:52.160</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:17.760,0:12:19.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:52.160,0:09:58.880,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>739.52</v>
+        <v>598.88</v>
       </c>
       <c r="B394" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:19.520</v>
+        <v>0:09:58.880</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:19.520,0:12:21.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:58.880,0:09:59.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>741</v>
+        <v>599.52</v>
       </c>
       <c r="B395" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:21.000</v>
+        <v>0:09:59.520</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:21.000,0:12:22.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:09:59.520,0:10:00.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>742.6</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="B396" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:22.600</v>
+        <v>0:10:00.200</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:22.600,0:12:24.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:10:00.200,0:10:01.120,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>744.32</v>
+        <v>601.12</v>
       </c>
       <c r="B397" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:24.320</v>
+        <v>0:10:01.120</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:24.320,0:12:25.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:10:01.120,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>745.8</v>
-      </c>
       <c r="B398" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:25.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:25.800,0:12:26.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>746.68</v>
-      </c>
       <c r="B399" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:26.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:26.680,0:12:27.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>747.2</v>
-      </c>
       <c r="B400" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:27.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:27.200,0:12:27.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>747.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:27.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:27.640,0:12:32.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>752.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:32.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:32.880,0:12:33.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>753.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:33.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:33.280,0:12:35.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <v>755.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:35.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:35.520,0:12:36.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <v>756.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:36.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:36.880,0:12:37.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>757.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:37.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C406" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:37.640,0:12:37.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>757.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:37.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C407" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:37.880,0:12:39.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>759.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:39.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C408" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:39.400,0:12:40.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>760.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:40.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C409" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:40.240,0:12:41.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>761.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:41.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C410" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:41.080,0:12:44.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>764.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:44.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C411" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:44.760,0:12:45.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>765.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:45.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C412" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:45.760,0:12:47.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>767.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:47.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C413" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:12:47.160,0:12:48.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>768.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:48.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C414" t="str">
         <f>"Dialogue: 2,"&amp;B414&amp;","&amp;B414&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:12:48.280,0:12:48.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>768.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:48.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C415" t="str">
         <f t="shared" ref="C415:C478" si="14">"Dialogue: 2,"&amp;B415&amp;","&amp;B415&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:12:48.800,0:12:48.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>769.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:49.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C416" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:49.800,0:12:49.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>771.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:51.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C417" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:51.240,0:12:51.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>773</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:53.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C418" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:53.000,0:12:53.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <v>774.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:54.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C419" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:54.080,0:12:54.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420">
-        <v>775.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:55.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C420" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:55.400,0:12:55.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421">
-        <v>776.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:56.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C421" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:56.840,0:12:56.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422">
-        <v>778.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:58.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C422" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:58.480,0:12:58.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423">
-        <v>779.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" t="str">
         <f t="shared" si="12"/>
-        <v>0:12:59.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C423" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:12:59.400,0:12:59.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424">
-        <v>780.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:00.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C424" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:00.320,0:13:00.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425">
-        <v>781.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:01.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C425" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:01.280,0:13:01.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>783.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:03.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C426" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:03.040,0:13:03.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>790.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:10.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C427" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:10.160,0:13:10.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <v>793.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:13.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C428" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:13.520,0:13:13.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429">
-        <v>795.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:15.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C429" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:15.880,0:13:15.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <v>796.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:16.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C430" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:16.200,0:13:16.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <v>796.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:16.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C431" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:16.760,0:13:16.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <v>801.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:21.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C432" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:21.520,0:13:21.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>802.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:22.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C433" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:22.200,0:13:22.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>804.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:24.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C434" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:24.880,0:13:24.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>806.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:26.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C435" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:26.040,0:13:26.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>807</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:27.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C436" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:27.000,0:13:27.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>807.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:27.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C437" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:27.640,0:13:27.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>808.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:28.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C438" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:28.320,0:13:28.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>810.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:30.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C439" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:30.040,0:13:30.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>810.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:30.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C440" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:30.880,0:13:30.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>812</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:32.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C441" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:32.000,0:13:32.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>813.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:33.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C442" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:33.880,0:13:33.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>814</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:34.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C443" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:34.000,0:13:34.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>818.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:38.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C444" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:38.080,0:13:38.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>819.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:39.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C445" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:39.800,0:13:39.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>839.43</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" t="str">
         <f t="shared" si="12"/>
-        <v>0:13:59.430</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C446" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:13:59.430,0:13:59.430,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>840.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" t="str">
         <f t="shared" si="12"/>
-        <v>0:14:00.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C447" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:00.720,0:14:00.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>841.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" t="str">
         <f t="shared" si="12"/>
-        <v>0:14:01.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C448" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:01.880,0:14:01.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>843.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" t="str">
         <f t="shared" si="12"/>
-        <v>0:14:03.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C449" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:03.320,0:14:03.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>844.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" t="str">
         <f t="shared" ref="B450:B513" si="15">TEXT(ROUNDDOWN(A450/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A450/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A450,60),3),"00.000")</f>
-        <v>0:14:04.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C450" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:04.240,0:14:04.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>845.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:05.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C451" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:05.320,0:14:05.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>845.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:05.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C452" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:05.680,0:14:05.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>846.56</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:06.560</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C453" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:06.560,0:14:06.560,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>847.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:07.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C454" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:07.920,0:14:07.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>848.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:08.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C455" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:08.880,0:14:08.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>850.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:10.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C456" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:10.480,0:14:10.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>851.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:11.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C457" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:11.280,0:14:11.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>852</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:12.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C458" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:12.000,0:14:12.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>853.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:13.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C459" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:13.160,0:14:13.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>854.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:14.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C460" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:14.840,0:14:14.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>855.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:15.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C461" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:15.480,0:14:15.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>856.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:16.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C462" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:16.520,0:14:16.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>857.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:17.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C463" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:17.120,0:14:17.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>858.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:18.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C464" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:18.200,0:14:18.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <v>859.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:19.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C465" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:19.200,0:14:19.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <v>859.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:19.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C466" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:19.360,0:14:19.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <v>859.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:19.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C467" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:19.840,0:14:19.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>861</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:21.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C468" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:21.000,0:14:21.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>861.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:21.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C469" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:21.480,0:14:21.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>862.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:22.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C470" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:22.240,0:14:22.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>863.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:23.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C471" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:23.040,0:14:23.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <v>863.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:23.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C472" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:23.960,0:14:23.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>864.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:24.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C473" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:24.280,0:14:24.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>867</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:27.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C474" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:27.000,0:14:27.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <v>875.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:35.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C475" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:35.480,0:14:35.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476">
-        <v>876.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:36.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C476" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:36.600,0:14:36.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <v>878.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:38.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C477" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:38.040,0:14:38.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>878.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:38.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C478" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:14:38.920,0:14:38.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>880.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:40.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C479" t="str">
-        <f t="shared" ref="C479:C542" si="16">"Dialogue: 2,"&amp;B479&amp;","&amp;B479&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:14:40.640,0:14:40.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>882.2</v>
-      </c>
+        <f t="shared" ref="C479:C536" si="16">"Dialogue: 2,"&amp;B479&amp;","&amp;B479&amp;",Default,,0,0,0,,"</f>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:42.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C480" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:42.200,0:14:42.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <v>883.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:43.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C481" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:43.680,0:14:43.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <v>884.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:44.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C482" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:44.480,0:14:44.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>885.56</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:45.560</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C483" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:45.560,0:14:45.560,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>886.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:46.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C484" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:46.440,0:14:46.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>887.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:47.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C485" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:47.800,0:14:47.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>893.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:53.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C486" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:53.600,0:14:53.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>894.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:54.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C487" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:54.400,0:14:54.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>895.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:55.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C488" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:55.320,0:14:55.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>896</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:56.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C489" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:56.000,0:14:56.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490">
-        <v>897.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:57.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C490" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:57.080,0:14:57.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491">
-        <v>898.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:58.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C491" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:58.400,0:14:58.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>899.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" t="str">
         <f t="shared" si="15"/>
-        <v>0:14:59.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C492" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:14:59.760,0:14:59.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>908.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:08.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C493" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:08.400,0:15:08.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>909.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:09.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C494" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:09.080,0:15:09.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495">
-        <v>910.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:10.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C495" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:10.080,0:15:10.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496">
-        <v>911.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:11.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C496" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:11.800,0:15:11.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497">
-        <v>912.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:12.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C497" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:12.680,0:15:12.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>913.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:13.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C498" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:13.960,0:15:13.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>914.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:14.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C499" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:14.920,0:15:14.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500">
-        <v>915.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:15.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C500" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:15.960,0:15:15.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501">
-        <v>917.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:17.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C501" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:17.120,0:15:17.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502">
-        <v>917.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:17.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C502" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:17.680,0:15:17.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503">
-        <v>918.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:18.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C503" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:18.320,0:15:18.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504">
-        <v>920</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:20.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C504" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:20.000,0:15:20.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>920.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:20.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C505" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:20.960,0:15:20.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506">
-        <v>939.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:39.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C506" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:39.720,0:15:39.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507">
-        <v>940.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:40.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C507" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:40.920,0:15:40.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508">
-        <v>941.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:41.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C508" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:41.920,0:15:41.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509">
-        <v>943</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:43.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C509" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:43.000,0:15:43.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510">
-        <v>943.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:43.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C510" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:43.840,0:15:43.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511">
-        <v>945.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:45.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C511" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:45.120,0:15:45.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512">
-        <v>946.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:46.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C512" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:46.040,0:15:46.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513">
-        <v>947</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" t="str">
         <f t="shared" si="15"/>
-        <v>0:15:47.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C513" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:47.000,0:15:47.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>948.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" t="str">
-        <f t="shared" ref="B514:B577" si="17">TEXT(ROUNDDOWN(A514/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A514/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A514,60),3),"00.000")</f>
-        <v>0:15:48.040</v>
+        <f t="shared" ref="B514:B536" si="17">TEXT(ROUNDDOWN(A514/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A514/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A514,60),3),"00.000")</f>
+        <v>0:00:00.000</v>
       </c>
       <c r="C514" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:48.040,0:15:48.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515">
-        <v>948.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" t="str">
         <f t="shared" si="17"/>
-        <v>0:15:48.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C515" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:48.960,0:15:48.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516">
-        <v>950.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" t="str">
         <f t="shared" si="17"/>
-        <v>0:15:50.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C516" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:50.760,0:15:50.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>951.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" t="str">
         <f t="shared" si="17"/>
-        <v>0:15:51.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C517" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:51.600,0:15:51.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>952.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" t="str">
         <f t="shared" si="17"/>
-        <v>0:15:52.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C518" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:52.040,0:15:52.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519">
-        <v>955.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" t="str">
         <f t="shared" si="17"/>
-        <v>0:15:55.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C519" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:55.160,0:15:55.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520">
-        <v>956.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" t="str">
         <f t="shared" si="17"/>
-        <v>0:15:56.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C520" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:56.840,0:15:56.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521">
-        <v>959</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" t="str">
         <f t="shared" si="17"/>
-        <v>0:15:59.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C521" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:15:59.000,0:15:59.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522">
-        <v>960.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:00.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C522" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:00.800,0:16:00.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523">
-        <v>962.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:02.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C523" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:02.320,0:16:02.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524">
-        <v>964.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:04.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C524" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:04.600,0:16:04.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525">
-        <v>965.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:05.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C525" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:05.320,0:16:05.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526">
-        <v>965.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:05.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C526" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:05.960,0:16:05.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527">
-        <v>966.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:06.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C527" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:06.840,0:16:06.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528">
-        <v>967.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:07.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C528" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:07.440,0:16:07.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529">
-        <v>967.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:07.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C529" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:07.920,0:16:07.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530">
-        <v>968.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:08.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C530" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:08.840,0:16:08.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531">
-        <v>969.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:09.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C531" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:09.480,0:16:09.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532">
-        <v>970.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:10.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C532" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:10.480,0:16:10.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533">
-        <v>971.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:11.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C533" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:11.120,0:16:11.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534">
-        <v>972.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:12.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C534" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:12.360,0:16:12.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535">
-        <v>973.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:13.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C535" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:13.320,0:16:13.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536">
-        <v>976</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" t="str">
         <f t="shared" si="17"/>
-        <v>0:16:16.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C536" t="str">
         <f t="shared" si="16"/>
-        <v>Dialogue: 2,0:16:16.000,0:16:16.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
   </sheetData>

--- a/second to ass time.xlsx
+++ b/second to ass time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - lijingze\文档\Video Encoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F7D7CF-74FB-4F87-A328-4C977346B1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB66A4C-477F-43E8-8DD9-147FBCDED581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5729345-2D38-4CFC-8151-5457CD233909}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47730BE7-471D-4AA3-9A4D-57430699CE36}">
   <dimension ref="A1:C536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="F403" sqref="F403"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C208" sqref="C1:C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -397,5166 +404,4599 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>17.079999999999998</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="B1" t="str">
         <f>TEXT(ROUNDDOWN(A1/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A1/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A1,60),3),"00.000")</f>
-        <v>0:00:17.080</v>
+        <v>0:00:03.338</v>
       </c>
       <c r="C1" t="str">
         <f>"Dialogue: 2,"&amp;B1&amp;","&amp;B2&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:17.080,0:00:21.830,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:03.338,0:00:04.704,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>21.83</v>
+        <v>4.7039999999999997</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">TEXT(ROUNDDOWN(A2/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A2/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A2,60),3),"00.000")</f>
-        <v>0:00:21.830</v>
+        <v>0:00:04.704</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="1">"Dialogue: 2,"&amp;B2&amp;","&amp;B3&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:21.830,0:00:24.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:04.704,0:00:05.804,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>24</v>
+        <v>5.8040000000000003</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:24.000</v>
+        <v>0:00:05.804</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:24.000,0:00:29.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:05.804,0:00:10.171,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>29.36</v>
+        <v>10.170999999999999</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:29.360</v>
+        <v>0:00:10.171</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:29.360,0:00:30.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:10.171,0:00:12.038,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30.48</v>
+        <v>12.038</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:30.480</v>
+        <v>0:00:12.038</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:30.480,0:00:31.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:12.038,0:00:15.505,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>31.2</v>
+        <v>15.505000000000001</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:31.200</v>
+        <v>0:00:15.505</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:31.200,0:00:32.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:15.505,0:00:18.604,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32.28</v>
+        <v>18.603999999999999</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:32.280</v>
+        <v>0:00:18.604</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:32.280,0:00:33.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:18.604,0:00:20.138,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>33.520000000000003</v>
+        <v>20.138000000000002</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:33.520</v>
+        <v>0:00:20.138</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:33.520,0:00:34.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:20.138,0:00:22.504,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>34.08</v>
+        <v>22.504000000000001</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:34.080</v>
+        <v>0:00:22.504</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:34.080,0:00:36.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:22.504,0:00:26.171,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>36.159999999999997</v>
+        <v>26.170999999999999</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:36.160</v>
+        <v>0:00:26.171</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:36.160,0:00:37.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:26.171,0:00:31.288,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>37.24</v>
+        <v>31.288</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:37.240</v>
+        <v>0:00:31.288</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:37.240,0:00:38.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:31.288,0:00:32.771,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>38.92</v>
+        <v>32.771000000000001</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:38.920</v>
+        <v>0:00:32.771</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:38.920,0:00:40.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:32.771,0:00:35.388,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>40.44</v>
+        <v>35.387999999999998</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:40.440</v>
+        <v>0:00:35.388</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:40.440,0:00:42.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:35.388,0:00:38.238,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>42.28</v>
+        <v>38.238</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:42.280</v>
+        <v>0:00:38.238</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:42.280,0:00:43.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:38.238,0:00:40.054,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>43.96</v>
+        <v>40.054000000000002</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:43.960</v>
+        <v>0:00:40.054</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:43.960,0:00:45.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:40.054,0:00:42.421,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>45.28</v>
+        <v>42.420999999999999</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:45.280</v>
+        <v>0:00:42.421</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:45.280,0:00:45.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:42.421,0:00:45.754,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>45.8</v>
+        <v>45.753999999999998</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:45.800</v>
+        <v>0:00:45.754</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:45.800,0:00:46.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:45.754,0:00:47.138,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>46.2</v>
+        <v>47.137999999999998</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:46.200</v>
+        <v>0:00:47.138</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:46.200,0:00:46.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:47.138,0:00:49.655,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>46.64</v>
+        <v>49.655000000000001</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:46.640</v>
+        <v>0:00:49.655</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:46.640,0:00:47.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:49.655,0:00:53.771,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>47.92</v>
+        <v>53.771000000000001</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:47.920</v>
+        <v>0:00:53.771</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:47.920,0:00:49.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:53.771,0:00:58.338,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>49.28</v>
+        <v>58.338000000000001</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:49.280</v>
+        <v>0:00:58.338</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:49.280,0:00:52.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:58.338,0:01:00.371,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>52.32</v>
+        <v>60.371000000000002</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:52.320</v>
+        <v>0:01:00.371</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:52.320,0:00:54.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:00.371,0:01:03.071,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>54.44</v>
+        <v>63.070999999999998</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:54.440</v>
+        <v>0:01:03.071</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:54.440,0:00:56.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:03.071,0:01:05.154,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>56.2</v>
+        <v>65.153999999999996</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:56.200</v>
+        <v>0:01:05.154</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:56.200,0:00:56.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:05.154,0:01:08.521,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>56.84</v>
+        <v>68.521000000000001</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:56.840</v>
+        <v>0:01:08.521</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:56.840,0:00:57.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:08.521,0:01:10.154,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>57.76</v>
+        <v>70.153999999999996</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:57.760</v>
+        <v>0:01:10.154</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:57.760,0:01:06.230,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:10.154,0:01:11.587,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>66.23</v>
+        <v>71.587000000000003</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:06.230</v>
+        <v>0:01:11.587</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:06.230,0:01:06.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:11.587,0:01:13.004,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>66.84</v>
+        <v>73.004000000000005</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:06.840</v>
+        <v>0:01:13.004</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:06.840,0:01:10.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:13.004,0:01:14.021,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>70.56</v>
+        <v>74.021000000000001</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:10.560</v>
+        <v>0:01:14.021</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:10.560,0:01:11.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:14.021,0:01:16.288,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>71.8</v>
+        <v>76.287999999999997</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:11.800</v>
+        <v>0:01:16.288</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:11.800,0:01:12.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:16.288,0:01:17.721,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>72.88</v>
+        <v>77.721000000000004</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:12.880</v>
+        <v>0:01:17.721</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:12.880,0:01:13.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:17.721,0:01:18.988,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>73.52</v>
+        <v>78.988</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:13.520</v>
+        <v>0:01:18.988</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:13.520,0:01:15.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:18.988,0:01:20.738,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>75.239999999999995</v>
+        <v>80.738</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:15.240</v>
+        <v>0:01:20.738</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:15.240,0:01:16.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:20.738,0:01:24.221,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>76.72</v>
+        <v>84.221000000000004</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:16.720</v>
+        <v>0:01:24.221</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:16.720,0:01:17.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:24.221,0:01:25.938,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>77.56</v>
+        <v>85.938000000000002</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:17.560</v>
+        <v>0:01:25.938</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:17.560,0:01:21.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:25.938,0:01:29.404,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>81.28</v>
+        <v>89.403999999999996</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:21.280</v>
+        <v>0:01:29.404</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:21.280,0:01:21.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:29.404,0:01:33.138,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>81.72</v>
+        <v>93.138000000000005</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:21.720</v>
+        <v>0:01:33.138</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:21.720,0:01:22.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:33.138,0:01:36.087,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>82.44</v>
+        <v>96.087000000000003</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:22.440</v>
+        <v>0:01:36.087</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:22.440,0:01:23.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:36.087,0:01:38.237,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>83.48</v>
+        <v>98.236999999999995</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:23.480</v>
+        <v>0:01:38.237</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:23.480,0:01:24.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:38.237,0:01:40.354,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>84</v>
+        <v>100.354</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:24.000</v>
+        <v>0:01:40.354</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:24.000,0:01:25.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:40.354,0:01:41.321,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>85.16</v>
+        <v>101.321</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:25.160</v>
+        <v>0:01:41.321</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:25.160,0:01:25.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:41.321,0:01:44.087,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>85.68</v>
+        <v>104.087</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:25.680</v>
+        <v>0:01:44.087</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:25.680,0:01:26.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:44.087,0:01:45.354,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>86.16</v>
+        <v>105.354</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:26.160</v>
+        <v>0:01:45.354</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:26.160,0:01:27.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:45.354,0:01:49.771,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>87.28</v>
+        <v>109.771</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:27.280</v>
+        <v>0:01:49.771</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:27.280,0:01:28.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:49.771,0:01:51.705,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>88.04</v>
+        <v>111.705</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:28.040</v>
+        <v>0:01:51.705</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:28.040,0:01:29.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:51.705,0:01:53.721,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>89.08</v>
+        <v>113.721</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:29.080</v>
+        <v>0:01:53.721</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:29.080,0:01:29.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:53.721,0:01:56.938,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>89.8</v>
+        <v>116.938</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:29.800</v>
+        <v>0:01:56.938</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:29.800,0:01:30.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:56.938,0:01:59.338,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>90.92</v>
+        <v>119.33799999999999</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:30.920</v>
+        <v>0:01:59.338</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:30.920,0:01:32.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:59.338,0:02:01.104,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>92.4</v>
+        <v>121.104</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:32.400</v>
+        <v>0:02:01.104</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:32.400,0:01:34.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:01.104,0:02:05.505,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>94.28</v>
+        <v>125.505</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:34.280</v>
+        <v>0:02:05.505</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:34.280,0:01:35.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:05.505,0:02:08.071,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>95.04</v>
+        <v>128.071</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:35.040</v>
+        <v>0:02:08.071</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:35.040,0:01:35.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:08.071,0:02:09.671,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>95.96</v>
+        <v>129.67099999999999</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:35.960</v>
+        <v>0:02:09.671</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:35.960,0:01:36.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:09.671,0:02:11.871,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>96.68</v>
+        <v>131.87100000000001</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:36.680</v>
+        <v>0:02:11.871</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:36.680,0:01:37.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:11.871,0:02:14.805,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>97.2</v>
+        <v>134.80500000000001</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:37.200</v>
+        <v>0:02:14.805</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:37.200,0:01:38.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:14.805,0:02:17.021,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>98.44</v>
+        <v>137.02099999999999</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:38.440</v>
+        <v>0:02:17.021</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:38.440,0:01:41.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:17.021,0:02:19.955,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>101.2</v>
+        <v>139.95500000000001</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:41.200</v>
+        <v>0:02:19.955</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:41.200,0:01:42.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:19.955,0:02:23.788,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>102.16</v>
+        <v>143.78800000000001</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:42.160</v>
+        <v>0:02:23.788</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:42.160,0:01:42.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:23.788,0:02:25.838,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>102.84</v>
+        <v>145.83799999999999</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:42.840</v>
+        <v>0:02:25.838</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:42.840,0:01:43.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:25.838,0:02:26.755,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>103.4</v>
+        <v>146.755</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:43.400</v>
+        <v>0:02:26.755</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:43.400,0:01:44.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:26.755,0:02:28.321,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>104.12</v>
+        <v>148.321</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:44.120</v>
+        <v>0:02:28.321</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:44.120,0:01:45.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:28.321,0:02:31.805,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>105.08</v>
+        <v>151.80500000000001</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:45.080</v>
+        <v>0:02:31.805</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:45.080,0:01:45.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:31.805,0:02:33.238,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>105.72</v>
+        <v>153.238</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:45.720</v>
+        <v>0:02:33.238</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:45.720,0:01:46.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:33.238,0:02:34.405,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>106.68</v>
+        <v>154.405</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:46.680</v>
+        <v>0:02:34.405</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:46.680,0:01:47.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:34.405,0:02:37.305,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>107.92</v>
+        <v>157.30500000000001</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:47.920</v>
+        <v>0:02:37.305</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:47.920,0:01:48.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:37.305,0:02:41.238,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>108.96</v>
+        <v>161.238</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:48.960</v>
+        <v>0:02:41.238</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:48.960,0:01:50.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:41.238,0:02:42.588,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>110.12</v>
+        <v>162.58799999999999</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="2">TEXT(ROUNDDOWN(A66/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A66/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A66,60),3),"00.000")</f>
-        <v>0:01:50.120</v>
+        <v>0:02:42.588</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C129" si="3">"Dialogue: 2,"&amp;B66&amp;","&amp;B67&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:01:50.120,0:01:51.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:42.588,0:02:44.287,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>111.36</v>
+        <v>164.28700000000001</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:51.360</v>
+        <v>0:02:44.287</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:51.360,0:01:52.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:44.287,0:02:47.054,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>112.08</v>
+        <v>167.054</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:52.080</v>
+        <v>0:02:47.054</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:52.080,0:01:52.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:47.054,0:02:50.571,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>112.8</v>
+        <v>170.571</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:52.800</v>
+        <v>0:02:50.571</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:52.800,0:01:54.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:50.571,0:02:51.938,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>114.24</v>
+        <v>171.93799999999999</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:54.240</v>
+        <v>0:02:51.938</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:54.240,0:01:54.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:51.938,0:02:55.605,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>114.92</v>
+        <v>175.60499999999999</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:54.920</v>
+        <v>0:02:55.605</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:54.920,0:01:55.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:55.605,0:02:56.321,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>115.48</v>
+        <v>176.321</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:55.480</v>
+        <v>0:02:56.321</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:55.480,0:01:56.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:56.321,0:02:58.871,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>116.84</v>
+        <v>178.87100000000001</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:56.840</v>
+        <v>0:02:58.871</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:56.840,0:01:58.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:58.871,0:03:01.821,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>118.56</v>
+        <v>181.821</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>0:01:58.560</v>
+        <v>0:03:01.821</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:01:58.560,3:200:13.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:01.821,0:03:04.105,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>12013</v>
+        <v>184.10499999999999</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>3:200:13.000</v>
+        <v>0:03:04.105</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,3:200:13.000,0:02:04.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:04.105,0:03:04.188,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>124.8</v>
+        <v>184.18799999999999</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:04.800</v>
+        <v>0:03:04.188</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:04.800,0:02:05.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:04.188,0:03:05.655,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>125.84</v>
+        <v>185.655</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:05.840</v>
+        <v>0:03:05.655</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:05.840,0:02:06.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:05.655,0:03:07.005,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>126.72</v>
+        <v>187.005</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:06.720</v>
+        <v>0:03:07.005</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:06.720,0:02:08.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:07.005,0:03:08.371,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>128.28</v>
+        <v>188.37100000000001</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:08.280</v>
+        <v>0:03:08.371</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:08.280,0:02:09.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:08.371,0:03:11.071,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>129.04</v>
+        <v>191.071</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:09.040</v>
+        <v>0:03:11.071</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:09.040,0:02:09.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:11.071,0:03:12.821,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>129.76</v>
+        <v>192.821</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:09.760</v>
+        <v>0:03:12.821</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:09.760,0:02:10.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:12.821,0:03:16.555,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>130.6</v>
+        <v>196.55500000000001</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:10.600</v>
+        <v>0:03:16.555</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:10.600,0:02:17.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:16.555,0:03:17.955,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>137.4</v>
+        <v>197.95500000000001</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:17.400</v>
+        <v>0:03:17.955</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:17.400,0:02:18.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:17.955,0:03:19.888,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>138.44</v>
+        <v>199.88800000000001</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:18.440</v>
+        <v>0:03:19.888</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:18.440,0:02:19.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:19.888,0:03:22.071,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>139.08000000000001</v>
+        <v>202.071</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:19.080</v>
+        <v>0:03:22.071</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:19.080,0:02:19.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:22.071,0:03:24.354,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>139.47999999999999</v>
+        <v>204.35400000000001</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:19.480</v>
+        <v>0:03:24.354</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:19.480,0:02:20.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:24.354,0:03:25.821,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>140.28</v>
+        <v>205.821</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:20.280</v>
+        <v>0:03:25.821</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:20.280,0:02:20.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:25.821,0:03:26.021,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>140.72</v>
+        <v>206.02099999999999</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:20.720</v>
+        <v>0:03:26.021</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:20.720,0:02:22.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:26.021,0:03:26.904,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>142.28</v>
+        <v>206.904</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:22.280</v>
+        <v>0:03:26.904</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:22.280,0:02:23.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:26.904,0:03:27.121,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>143.63999999999999</v>
+        <v>207.12100000000001</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:23.640</v>
+        <v>0:03:27.121</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:23.640,0:02:27.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:27.121,0:03:27.171,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>147.96</v>
+        <v>207.17099999999999</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:27.960</v>
+        <v>0:03:27.171</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:27.960,0:02:32.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:27.171,0:03:27.504,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>152.36000000000001</v>
+        <v>207.50399999999999</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:32.360</v>
+        <v>0:03:27.504</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:32.360,0:02:33.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:27.504,0:03:28.454,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>153.04</v>
+        <v>208.45400000000001</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:33.040</v>
+        <v>0:03:28.454</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:33.040,0:02:33.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:28.454,0:03:29.588,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>153.88</v>
+        <v>209.58799999999999</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:33.880</v>
+        <v>0:03:29.588</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:33.880,0:02:40.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:29.588,0:03:30.738,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>160.4</v>
+        <v>210.738</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:40.400</v>
+        <v>0:03:30.738</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:40.400,0:02:46.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:30.738,0:03:33.171,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>166.44</v>
+        <v>213.17099999999999</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:46.440</v>
+        <v>0:03:33.171</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:46.440,0:02:46.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:33.171,0:03:34.737,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>166.48</v>
+        <v>214.73699999999999</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:46.480</v>
+        <v>0:03:34.737</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:46.480,0:02:47.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:34.737,0:03:35.671,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>167.84</v>
+        <v>215.67099999999999</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:47.840</v>
+        <v>0:03:35.671</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:47.840,4:281:53.000,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:35.671,0:03:37.571,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>16913</v>
+        <v>217.571</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="2"/>
-        <v>4:281:53.000</v>
+        <v>0:03:37.571</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,4:281:53.000,0:02:50.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:37.571,0:03:39.088,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>170.24</v>
+        <v>219.08799999999999</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:50.240</v>
+        <v>0:03:39.088</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:50.240,0:02:51.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:39.088,0:03:40.405,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>171.48</v>
+        <v>220.405</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:51.480</v>
+        <v>0:03:40.405</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:51.480,0:02:52.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:40.405,0:03:42.571,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>172.12</v>
+        <v>222.571</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:52.120</v>
+        <v>0:03:42.571</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:52.120,0:02:53.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:42.571,0:03:44.404,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>173.64</v>
+        <v>224.404</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:53.640</v>
+        <v>0:03:44.404</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:53.640,0:02:54.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:44.404,0:03:47.237,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>174.92</v>
+        <v>227.23699999999999</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:54.920</v>
+        <v>0:03:47.237</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:54.920,0:02:58.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:47.237,0:03:49.021,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>178.56</v>
+        <v>229.02099999999999</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:58.560</v>
+        <v>0:03:49.021</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:58.560,0:03:02.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:49.021,0:03:49.938,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>182.6</v>
+        <v>229.93799999999999</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:02.600</v>
+        <v>0:03:49.938</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:02.600,0:03:04.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:49.938,0:03:54.154,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>184.04</v>
+        <v>234.154</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:04.040</v>
+        <v>0:03:54.154</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:04.040,0:03:05.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:54.154,0:03:55.904,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>185.32</v>
+        <v>235.904</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:05.320</v>
+        <v>0:03:55.904</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:05.320,0:03:06.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:55.904,0:03:57.471,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>186.32</v>
+        <v>237.471</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:06.320</v>
+        <v>0:03:57.471</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:06.320,0:03:07.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:57.471,0:03:59.188,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>187.72</v>
+        <v>239.18799999999999</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:07.720</v>
+        <v>0:03:59.188</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:07.720,0:03:08.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:59.188,0:04:02.238,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>188.32</v>
+        <v>242.238</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:08.320</v>
+        <v>0:04:02.238</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:08.320,0:03:08.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:02.238,0:04:03.921,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>188.88</v>
+        <v>243.92099999999999</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:08.880</v>
+        <v>0:04:03.921</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:08.880,0:03:09.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:03.921,0:04:05.504,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>189.88</v>
+        <v>245.50399999999999</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:09.880</v>
+        <v>0:04:05.504</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:09.880,0:03:11.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:05.504,0:04:07.271,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>191.2</v>
+        <v>247.27099999999999</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:11.200</v>
+        <v>0:04:07.271</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:11.200,0:03:12.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:07.271,0:04:09.321,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>192.16</v>
+        <v>249.321</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:12.160</v>
+        <v>0:04:09.321</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:12.160,0:03:12.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:09.321,0:04:11.721,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>192.84</v>
+        <v>251.721</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:12.840</v>
+        <v>0:04:11.721</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:12.840,0:03:13.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:11.721,0:04:12.771,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>193.76</v>
+        <v>252.77099999999999</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:13.760</v>
+        <v>0:04:12.771</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:13.760,0:03:15.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:12.771,0:04:14.337,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>195.08</v>
+        <v>254.33699999999999</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:15.080</v>
+        <v>0:04:14.337</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:15.080,0:03:16.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:14.337,0:04:17.254,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>196.24</v>
+        <v>257.25400000000002</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:16.240</v>
+        <v>0:04:17.254</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:16.240,0:03:17.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:17.254,0:04:18.687,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>197.4</v>
+        <v>258.68700000000001</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:17.400</v>
+        <v>0:04:18.687</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:17.400,0:03:18.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:18.687,0:04:20.871,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>198.24</v>
+        <v>260.87099999999998</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:18.240</v>
+        <v>0:04:20.871</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:18.240,0:03:19.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:20.871,0:04:22.587,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>199.36</v>
+        <v>262.58699999999999</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:19.360</v>
+        <v>0:04:22.587</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:19.360,0:03:20.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:22.587,0:04:22.854,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>200.08</v>
+        <v>262.85399999999998</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:20.080</v>
+        <v>0:04:22.854</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:20.080,0:03:22.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:22.854,0:04:25.354,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>202.04</v>
+        <v>265.35399999999998</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:22.040</v>
+        <v>0:04:25.354</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:22.040,0:03:23.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:25.354,0:04:26.837,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>203.4</v>
+        <v>266.83699999999999</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:23.400</v>
+        <v>0:04:26.837</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:23.400,0:03:25.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:26.837,0:04:28.221,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>205.04</v>
+        <v>268.221</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:25.040</v>
+        <v>0:04:28.221</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:25.040,0:03:26.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:28.221,0:04:29.938,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>206.36</v>
+        <v>269.93799999999999</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:26.360</v>
+        <v>0:04:29.938</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:26.360,0:03:27.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:29.938,0:04:33.071,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>207.56</v>
+        <v>273.07100000000003</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:27.560</v>
+        <v>0:04:33.071</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:27.560,0:03:28.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:33.071,0:04:38.271,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>208.52</v>
+        <v>278.27100000000002</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:28.520</v>
+        <v>0:04:38.271</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:28.520,0:03:28.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:38.271,0:04:40.021,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>208.72</v>
+        <v>280.02100000000002</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B193" si="4">TEXT(ROUNDDOWN(A130/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A130/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A130,60),3),"00.000")</f>
-        <v>0:03:28.720</v>
+        <v>0:04:40.021</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" ref="C130:C193" si="5">"Dialogue: 2,"&amp;B130&amp;","&amp;B131&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:03:28.720,0:03:29.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:40.021,0:04:40.954,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>209.56</v>
+        <v>280.95400000000001</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:29.560</v>
+        <v>0:04:40.954</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:29.560,0:03:30.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:40.954,0:04:41.954,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>210.64</v>
+        <v>281.95400000000001</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:30.640</v>
+        <v>0:04:41.954</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:30.640,0:03:31.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:41.954,0:04:43.104,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211.84</v>
+        <v>283.10399999999998</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:31.840</v>
+        <v>0:04:43.104</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:31.840,0:03:33.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:43.104,0:04:44.921,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>213.28</v>
+        <v>284.92099999999999</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:33.280</v>
+        <v>0:04:44.921</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:33.280,0:03:34.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:44.921,0:04:48.221,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>214.04</v>
+        <v>288.221</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:34.040</v>
+        <v>0:04:48.221</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:34.040,0:03:34.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:48.221,0:04:49.388,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>214.6</v>
+        <v>289.38799999999998</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:34.600</v>
+        <v>0:04:49.388</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:34.600,0:03:35.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:49.388,0:04:50.938,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>215.68</v>
+        <v>290.93799999999999</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:35.680</v>
+        <v>0:04:50.938</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:35.680,0:03:36.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:50.938,0:04:52.437,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>216.76</v>
+        <v>292.43700000000001</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:36.760</v>
+        <v>0:04:52.437</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:36.760,0:03:38.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:52.437,0:04:54.671,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>218.16</v>
+        <v>294.67099999999999</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:38.160</v>
+        <v>0:04:54.671</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:38.160,0:03:39.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:54.671,0:04:56.754,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>219.2</v>
+        <v>296.75400000000002</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:39.200</v>
+        <v>0:04:56.754</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:39.200,0:03:40.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:56.754,0:04:59.204,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>220.56</v>
+        <v>299.20400000000001</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:40.560</v>
+        <v>0:04:59.204</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:40.560,0:03:41.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:59.204,0:05:02.537,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>221.2</v>
+        <v>302.53699999999998</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:41.200</v>
+        <v>0:05:02.537</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:41.200,0:03:41.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:02.537,0:05:04.738,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>221.96</v>
+        <v>304.738</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:41.960</v>
+        <v>0:05:04.738</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:41.960,0:03:43.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:04.738,0:05:06.188,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>223.44</v>
+        <v>306.18799999999999</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:43.440</v>
+        <v>0:05:06.188</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:43.440,0:03:44.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:06.188,0:05:07.805,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>224.72</v>
+        <v>307.80500000000001</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:44.720</v>
+        <v>0:05:07.805</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:44.720,0:03:46.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:07.805,0:05:09.405,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>226.08</v>
+        <v>309.40499999999997</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:46.080</v>
+        <v>0:05:09.405</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:46.080,0:03:47.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:09.405,0:05:13.321,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>227.8</v>
+        <v>313.32100000000003</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:47.800</v>
+        <v>0:05:13.321</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:47.800,0:03:48.840,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:13.321,0:05:17.054,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>228.84</v>
+        <v>317.05399999999997</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:48.840</v>
+        <v>0:05:17.054</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:48.840,0:03:50.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:17.054,0:05:18.571,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>230.08</v>
+        <v>318.57100000000003</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:50.080</v>
+        <v>0:05:18.571</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:50.080,0:03:53.440,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:18.571,0:05:22.021,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>233.44</v>
+        <v>322.02100000000002</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:53.440</v>
+        <v>0:05:22.021</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:53.440,0:03:54.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:22.021,0:05:23.921,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>234.68</v>
+        <v>323.92099999999999</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:54.680</v>
+        <v>0:05:23.921</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:54.680,0:03:55.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:23.921,0:05:25.587,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>235.64</v>
+        <v>325.58699999999999</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:55.640</v>
+        <v>0:05:25.587</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:55.640,0:03:57.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:25.587,0:05:27.054,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>237.08</v>
+        <v>327.05399999999997</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:57.080</v>
+        <v>0:05:27.054</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:57.080,0:03:58.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:27.054,0:05:28.971,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>238.2</v>
+        <v>328.971</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:58.200</v>
+        <v>0:05:28.971</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:58.200,0:03:59.560,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:28.971,0:05:31.538,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>239.56</v>
+        <v>331.53800000000001</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="4"/>
-        <v>0:03:59.560</v>
+        <v>0:05:31.538</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:03:59.560,0:04:00.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:31.538,0:05:33.355,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>240.6</v>
+        <v>333.35500000000002</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:00.600</v>
+        <v>0:05:33.355</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:00.600,0:04:01.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:33.355,0:05:35.638,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>241.6</v>
+        <v>335.63799999999998</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:01.600</v>
+        <v>0:05:35.638</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:01.600,0:04:02.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:35.638,0:05:39.037,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>242.48</v>
+        <v>339.03699999999998</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:02.480</v>
+        <v>0:05:39.037</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:02.480,0:04:06.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:39.037,0:05:42.188,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>246.32</v>
+        <v>342.18799999999999</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:06.320</v>
+        <v>0:05:42.188</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:06.320,0:04:07.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:42.188,0:05:44.771,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>247.48</v>
+        <v>344.77100000000002</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:07.480</v>
+        <v>0:05:44.771</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:07.480,0:04:08.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:44.771,0:05:48.421,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>248.32</v>
+        <v>348.42099999999999</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:08.320</v>
+        <v>0:05:48.421</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:08.320,0:04:09.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:48.421,0:05:50.655,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>249.08</v>
+        <v>350.65499999999997</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:09.080</v>
+        <v>0:05:50.655</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:09.080,0:04:10.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:50.655,0:05:52.238,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>250.16</v>
+        <v>352.238</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:10.160</v>
+        <v>0:05:52.238</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:10.160,0:04:11.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:52.238,0:05:53.937,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>251.12</v>
+        <v>353.93700000000001</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:11.120</v>
+        <v>0:05:53.937</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:11.120,0:04:12.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:53.937,0:05:57.788,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>252.2</v>
+        <v>357.78800000000001</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:12.200</v>
+        <v>0:05:57.788</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:12.200,0:04:13.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:57.788,0:05:59.105,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>253.28</v>
+        <v>359.10500000000002</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:13.280</v>
+        <v>0:05:59.105</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:13.280,0:04:14.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:59.105,0:06:03.221,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>254.16</v>
+        <v>363.221</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:14.160</v>
+        <v>0:06:03.221</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:14.160,0:04:16.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:03.221,0:06:04.088,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>256.04000000000002</v>
+        <v>364.08800000000002</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:16.040</v>
+        <v>0:06:04.088</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:16.040,0:04:16.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:04.088,0:06:06.571,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>256.68</v>
+        <v>366.57100000000003</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:16.680</v>
+        <v>0:06:06.571</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:16.680,0:04:17.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:06.571,0:06:09.004,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>257.24</v>
+        <v>369.00400000000002</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:17.240</v>
+        <v>0:06:09.004</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:17.240,0:04:17.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:09.004,0:06:13.071,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>257.92</v>
+        <v>373.07100000000003</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:17.920</v>
+        <v>0:06:13.071</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:17.920,0:04:18.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:13.071,0:06:17.371,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>258.27999999999997</v>
+        <v>377.37099999999998</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:18.280</v>
+        <v>0:06:17.371</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:18.280,0:04:19.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:17.371,0:06:19.705,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>259.2</v>
+        <v>379.70499999999998</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:19.200</v>
+        <v>0:06:19.705</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:19.200,0:04:20.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:19.705,0:06:21.655,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>260.39999999999998</v>
+        <v>381.65499999999997</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:20.400</v>
+        <v>0:06:21.655</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:20.400,0:04:20.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:21.655,0:06:24.255,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>260.95999999999998</v>
+        <v>384.255</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:20.960</v>
+        <v>0:06:24.255</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:20.960,0:04:22.200,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:24.255,0:06:27.021,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>262.2</v>
+        <v>387.02100000000002</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:22.200</v>
+        <v>0:06:27.021</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:22.200,0:04:22.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:27.021,0:06:31.871,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>262.64</v>
+        <v>391.87099999999998</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:22.640</v>
+        <v>0:06:31.871</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:22.640,0:04:23.680,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:31.871,0:06:35.554,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>263.68</v>
+        <v>395.55399999999997</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:23.680</v>
+        <v>0:06:35.554</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:23.680,0:04:24.960,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:35.554,0:06:40.571,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>264.95999999999998</v>
+        <v>400.57100000000003</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:24.960</v>
+        <v>0:06:40.571</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:24.960,0:04:25.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:40.571,0:06:41.554,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>265.8</v>
+        <v>401.55399999999997</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:25.800</v>
+        <v>0:06:41.554</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:25.800,0:04:27.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:41.554,0:06:43.987,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>267.04000000000002</v>
+        <v>403.98700000000002</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:27.040</v>
+        <v>0:06:43.987</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:27.040,0:04:29.760,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:43.987,0:06:46.888,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>269.76</v>
+        <v>406.88799999999998</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:29.760</v>
+        <v>0:06:46.888</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:29.760,0:04:30.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:46.888,0:06:51.388,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>270.52</v>
+        <v>411.38799999999998</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:30.520</v>
+        <v>0:06:51.388</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:30.520,0:04:32.040,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:51.388,0:06:52.604,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>272.04000000000002</v>
+        <v>412.60399999999998</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:32.040</v>
+        <v>0:06:52.604</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:32.040,0:04:33.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:52.604,0:06:54.338,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>273.72000000000003</v>
+        <v>414.33800000000002</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:33.720</v>
+        <v>0:06:54.338</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:33.720,0:04:35.160,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:54.338,0:06:56.654,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>275.16000000000003</v>
+        <v>416.654</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:35.160</v>
+        <v>0:06:56.654</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:35.160,0:04:35.800,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:06:56.654,0:07:00.388,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>275.8</v>
+        <v>420.38799999999998</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:35.800</v>
+        <v>0:07:00.388</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:35.800,0:04:36.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:00.388,0:07:03.554,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>276.92</v>
+        <v>423.55399999999997</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:36.920</v>
+        <v>0:07:03.554</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:36.920,0:04:38.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:03.554,0:07:05.721,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>278.32</v>
+        <v>425.721</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:38.320</v>
+        <v>0:07:05.721</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:38.320,0:04:39.240,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:05.721,0:07:07.654,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>279.24</v>
+        <v>427.654</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:39.240</v>
+        <v>0:07:07.654</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:39.240,0:04:40.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:07.654,0:07:09.554,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>280.52</v>
+        <v>429.55399999999997</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:40.520</v>
+        <v>0:07:09.554</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:40.520,0:04:42.120,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:09.554,0:07:11.754,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>282.12</v>
+        <v>431.75400000000002</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:42.120</v>
+        <v>0:07:11.754</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:42.120,0:04:43.080,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:11.754,0:07:13.537,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>283.08</v>
+        <v>433.53699999999998</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:43.080</v>
+        <v>0:07:13.537</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:43.080,0:04:44.400,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:13.537,0:07:15.971,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>284.39999999999998</v>
+        <v>435.971</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" ref="B194:B257" si="6">TEXT(ROUNDDOWN(A194/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A194/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A194,60),3),"00.000")</f>
-        <v>0:04:44.400</v>
+        <v>0:07:15.971</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" ref="C194:C257" si="7">"Dialogue: 2,"&amp;B194&amp;","&amp;B195&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:04:44.400,0:04:45.640,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:15.971,0:07:17.288,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>285.64</v>
+        <v>437.28800000000001</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:45.640</v>
+        <v>0:07:17.288</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:45.640,0:04:46.360,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:17.288,0:07:19.521,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>286.36</v>
+        <v>439.52100000000002</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:46.360</v>
+        <v>0:07:19.521</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:46.360,0:04:48.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:19.521,0:07:20.371,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>288.52</v>
+        <v>440.37099999999998</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:48.520</v>
+        <v>0:07:20.371</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:48.520,0:04:49.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:20.371,0:07:22.171,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>289.60000000000002</v>
+        <v>442.17099999999999</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:49.600</v>
+        <v>0:07:22.171</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:49.600,0:04:50.320,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:22.171,0:07:24.938,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>290.32</v>
+        <v>444.93799999999999</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:50.320</v>
+        <v>0:07:24.938</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:50.320,0:04:50.880,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:24.938,0:07:26.855,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>290.88</v>
+        <v>446.85500000000002</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:50.880</v>
+        <v>0:07:26.855</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:50.880,0:04:51.600,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:26.855,0:07:30.305,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>291.60000000000002</v>
+        <v>450.30500000000001</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:51.600</v>
+        <v>0:07:30.305</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:51.600,0:04:52.720,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:30.305,0:07:33.871,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>292.72000000000003</v>
+        <v>453.87099999999998</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:52.720</v>
+        <v>0:07:33.871</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:52.720,0:04:53.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:33.871,0:07:35.605,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>293.92</v>
+        <v>455.60500000000002</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:53.920</v>
+        <v>0:07:35.605</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:53.920,0:04:54.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:35.605,0:07:36.488,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>294.48</v>
+        <v>456.488</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:54.480</v>
+        <v>0:07:36.488</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:54.480,0:04:55.520,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:36.488,0:07:38.855,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>295.52</v>
+        <v>458.85500000000002</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:55.520</v>
+        <v>0:07:38.855</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:55.520,0:04:56.480,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:38.855,0:07:41.555,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>296.48</v>
+        <v>461.55500000000001</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:56.480</v>
+        <v>0:07:41.555</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:56.480,0:04:57.920,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:41.555,0:07:42.571,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>297.92</v>
+        <v>462.57100000000003</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:57.920</v>
+        <v>0:07:42.571</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:57.920,0:04:59.280,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:07:42.571,0:07:45.771,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>299.27999999999997</v>
+        <v>465.77100000000002</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="6"/>
-        <v>0:04:59.280</v>
+        <v>0:07:45.771</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:04:59.280,0:05:01.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>301</v>
-      </c>
+        <v>Dialogue: 2,0:07:45.771,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:01.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:01.000,0:05:01.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>301.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:01.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:01.920,0:05:02.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>302.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:02.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:02.520,8:506:53.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>30413</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" t="str">
         <f t="shared" si="6"/>
-        <v>8:506:53.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,8:506:53.000,0:05:04.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>304.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:04.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:04.680,0:05:05.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>305.60000000000002</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:05.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:05.600,0:05:31.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>331.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:31.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:31.920,0:05:32.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>332.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:32.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:32.920,0:05:34.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>334.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:34.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:34.320,0:05:35.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>335.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:35.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:35.200,0:05:36.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>336.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:36.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:36.800,0:05:38.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>338.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:38.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:38.320,0:05:38.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>338.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:38.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:38.680,0:05:40.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>340.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:40.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:40.120,0:05:41.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>341.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:41.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:41.200,0:05:41.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>341.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:41.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:41.680,0:05:43.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>343.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:43.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:43.320,0:05:44.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>344.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:44.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:44.760,0:05:45.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>345.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:45.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:45.920,0:05:47.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>347.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:47.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:47.800,0:05:49.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>349.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:49.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:49.120,0:05:50.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>350.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:50.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:50.880,0:05:51.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>351.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:51.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:51.920,0:05:52.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>352.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:52.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:52.360,0:05:53.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>353.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:53.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:53.440,0:05:55.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>355.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:55.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:55.160,0:05:56.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>356.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:56.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:56.320,0:05:57.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>357.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:57.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:57.440,0:05:58.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>358.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" t="str">
         <f t="shared" si="6"/>
-        <v>0:05:58.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:05:58.760,0:06:00.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>360.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:00.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:00.680,0:06:00.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>360.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:00.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:00.720,0:06:01.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>361.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:01.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:01.640,0:06:02.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>362</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:02.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:02.000,0:06:22.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>382.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:22.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:22.760,0:06:24.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>384.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:24.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:24.520,0:06:25.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>385.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:25.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:25.480,0:06:26.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>386.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:26.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:26.840,0:06:27.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>387.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:27.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:27.640,0:06:28.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>388.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:28.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:28.800,0:06:29.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>389.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:29.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:29.440,0:06:30.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>390.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:30.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:30.360,0:06:31.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>391.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:31.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:31.840,0:06:33.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>393.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:33.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:33.600,0:06:34.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>394.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:34.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:34.320,0:06:35.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>395.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:35.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:35.120,0:06:35.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>395.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:35.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:35.960,0:06:37.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>397.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:37.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:37.240,0:06:40.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>400</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:40.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:40.000,0:06:40.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>400.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" t="str">
         <f t="shared" si="6"/>
-        <v>0:06:40.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:06:40.680,0:06:42.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>402.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" t="str">
         <f t="shared" ref="B258:B321" si="8">TEXT(ROUNDDOWN(A258/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A258/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A258,60),3),"00.000")</f>
-        <v>0:06:42.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C321" si="9">"Dialogue: 2,"&amp;B258&amp;","&amp;B259&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:06:42.400,0:06:43.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>403.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:43.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:43.960,0:06:50.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>410.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:50.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:50.200,0:06:51.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>411.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:51.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:51.480,0:06:52.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>412.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:52.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:52.720,0:06:53.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>413.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:53.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:53.800,0:06:54.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>414.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:54.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:54.640,0:06:55.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>415.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:55.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:55.520,0:06:56.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>416.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:56.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:56.800,0:06:59.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>419.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" t="str">
         <f t="shared" si="8"/>
-        <v>0:06:59.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:06:59.600,0:07:00.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>420.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:00.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:00.440,0:07:01.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>421.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:01.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:01.800,0:07:02.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>422.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:02.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:02.440,0:07:03.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>423.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:03.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:03.480,0:07:04.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>424.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:04.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:04.280,0:07:05.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>425.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:05.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:05.520,0:07:06.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>426.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:06.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:06.200,0:07:07.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>427.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:07.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:07.280,0:07:20.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>440.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:20.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:20.480,0:07:20.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>440.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:20.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:20.920,0:07:21.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>441.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:21.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:21.680,0:07:23.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>443.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:23.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:23.960,0:07:25.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>445.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:25.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:25.160,0:07:26.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>446.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:26.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:26.160,0:07:27.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>447.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:27.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:27.120,0:07:28.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>448.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:28.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:28.800,0:07:29.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>449.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:29.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:29.880,0:07:30.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>450.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:30.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:30.400,0:07:31.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>451.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:31.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:31.720,0:07:32.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>452.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:32.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:32.880,0:07:35.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>455.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:35.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:35.240,0:07:35.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>455.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:35.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:35.840,0:07:37.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>457</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:37.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:37.000,0:07:37.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>457.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:37.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:37.720,0:07:38.560,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>458.56</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:38.560</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:38.560,0:07:39.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>459.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:39.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:39.200,0:07:39.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>459.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:39.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:39.680,0:07:43.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>463.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:43.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:43.080,0:07:44.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>464.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:44.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:44.040,0:07:44.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>464.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:44.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:44.600,0:07:45.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>465.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:45.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:45.080,0:07:45.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>465.68</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:45.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:45.680,0:07:47.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>467.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:47.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:47.080,0:07:47.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>467.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:47.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:47.800,0:07:48.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>468.92</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:48.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:48.920,0:07:49.560,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>469.56</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:49.560</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:49.560,0:07:50.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>470.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:50.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:50.240,0:07:50.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>470.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:50.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:50.840,0:07:51.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>471.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:51.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:51.640,0:07:53.040,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>473.04</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:53.040</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:53.040,0:07:54.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>474.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:54.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:54.360,0:07:55.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>475.8</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:55.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:55.800,0:07:57.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>477.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:57.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:57.240,0:07:58.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>478.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:58.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:58.120,0:07:59.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>479.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" t="str">
         <f t="shared" si="8"/>
-        <v>0:07:59.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:07:59.640,0:08:00.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>480.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:00.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:00.720,0:08:02.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>482.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:02.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:02.440,0:08:03.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>483</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:03.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:03.000,0:08:03.560,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>483.56</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:03.560</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:03.560,0:08:14.560,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>494.56</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:14.560</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:14.560,0:08:15.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>495.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:15.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:15.360,0:08:16.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>496.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:16.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:16.120,0:08:17.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>497.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:17.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:17.400,0:08:18.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>498.2</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" t="str">
         <f t="shared" si="8"/>
-        <v>0:08:18.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:08:18.200,0:08:18.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>498.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" t="str">
         <f t="shared" ref="B322:B385" si="10">TEXT(ROUNDDOWN(A322/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A322/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A322,60),3),"00.000")</f>
-        <v>0:08:18.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" ref="C322:C385" si="11">"Dialogue: 2,"&amp;B322&amp;","&amp;B323&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:08:18.840,0:08:26.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>506.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:26.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:26.880,0:08:28.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>508.08</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:28.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:28.080,0:08:29.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>509.32</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:29.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:29.320,0:08:30.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>510.44</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:30.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:30.440,0:08:31.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>511.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:31.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:31.720,0:08:32.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>512.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:32.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:32.880,0:08:33.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>513.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:33.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:33.760,0:08:34.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>514.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:34.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:34.640,0:08:35.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>515.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:35.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:35.360,0:08:35.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>515.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:35.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:35.840,0:08:37.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>517.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:37.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:37.280,0:08:37.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>517.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:37.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:37.480,0:08:38.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>518.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:38.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:38.480,0:08:39.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>519.20000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:39.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:39.200,0:08:40.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>520.67999999999995</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:40.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:40.680,0:08:41.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>521.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:41.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:41.480,0:08:42.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>522.08000000000004</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:42.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:42.080,0:08:42.960,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>522.96</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:42.960</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:42.960,0:08:43.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>523.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:43.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:43.840,0:08:44.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>524.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:44.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:44.160,0:08:45.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>525.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:45.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:45.240,0:08:46.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>526.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:46.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:46.240,0:08:46.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>526.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:46.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:46.840,0:08:47.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>527.91999999999996</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:47.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:47.920,0:08:48.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>528.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:48.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:48.880,0:08:50.280,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>530.28</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:50.280</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:50.280,14:886:53.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>53213</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" t="str">
         <f t="shared" si="10"/>
-        <v>14:886:53.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,14:886:53.000,0:08:53.240,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>533.24</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:53.240</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:53.240,0:08:54.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>534.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:54.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:54.720,0:08:55.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>535.44000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:55.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:55.440,0:08:56.480,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>536.48</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:56.480</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:56.480,0:08:58.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>538.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:58.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:58.120,0:08:58.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>538.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" t="str">
         <f t="shared" si="10"/>
-        <v>0:08:58.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:08:58.720,15:900:13.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>54013</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" t="str">
         <f t="shared" si="10"/>
-        <v>15:900:13.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,15:900:13.000,0:09:01.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>541.20000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:01.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:01.200,0:09:02.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>542.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:02.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:02.760,0:09:04.320,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>544.32000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:04.320</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:04.320,0:09:05.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>545</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:05.000</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:05.000,0:09:07.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>547.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:07.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:07.720,0:09:08.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>548.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:08.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:08.400,0:09:09.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>549.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:09.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:09.520,0:09:10.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>550.79999999999995</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:10.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:10.800,0:09:15.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>555.20000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:15.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:15.200,0:09:16.560,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>556.55999999999995</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:16.560</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:16.560,0:09:18.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>558.08000000000004</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:18.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:18.080,0:09:19.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>559.20000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:19.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:19.200,0:09:20.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>560.44000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:20.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:20.440,0:09:20.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>560.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:20.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:20.840,0:09:21.680,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>561.67999999999995</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:21.680</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:21.680,0:09:22.840,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>562.84</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:22.840</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:22.840,0:09:24.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>564.20000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:24.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:24.200,0:09:25.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>565.20000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:25.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:25.200,0:09:26.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>566.08000000000004</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:26.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:26.080,0:09:32.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>572.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:32.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:32.360,0:09:33.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>573.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:33.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:33.640,0:09:36.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>576.44000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:36.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:36.440,0:09:37.400,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>577.4</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:37.400</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:37.400,0:09:39.760,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>579.76</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:39.760</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:39.760,0:09:40.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>580.91999999999996</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:40.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:40.920,0:09:41.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>581.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:41.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:41.720,0:09:43.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>583.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:43.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:43.520,0:09:45.080,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>585.08000000000004</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:45.080</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:45.080,0:09:45.800,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>585.79999999999995</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" t="str">
         <f t="shared" si="10"/>
-        <v>0:09:45.800</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:09:45.800,0:09:46.720,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>586.72</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" t="str">
         <f t="shared" ref="B386:B449" si="12">TEXT(ROUNDDOWN(A386/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A386/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A386,60),3),"00.000")</f>
-        <v>0:09:46.720</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" ref="C386:C413" si="13">"Dialogue: 2,"&amp;B386&amp;","&amp;B387&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:09:46.720,0:09:47.440,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>587.44000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:47.440</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:47.440,0:09:48.360,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>588.36</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:48.360</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:48.360,0:09:48.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>588.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:48.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:48.880,0:09:49.920,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>589.91999999999996</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:49.920</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:49.920,0:09:50.600,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>590.6</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:50.600</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:50.600,0:09:51.640,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>591.64</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:51.640</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:51.640,0:09:52.160,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>592.16</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:52.160</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:52.160,0:09:58.880,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>598.88</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:58.880</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:58.880,0:09:59.520,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>599.52</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" t="str">
         <f t="shared" si="12"/>
-        <v>0:09:59.520</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:09:59.520,0:10:00.200,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>600.20000000000005</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" t="str">
         <f t="shared" si="12"/>
-        <v>0:10:00.200</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:10:00.200,0:10:01.120,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>601.12</v>
-      </c>
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" t="str">
         <f t="shared" si="12"/>
-        <v>0:10:01.120</v>
+        <v>0:00:00.000</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:10:01.120,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5566,7 +5006,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5576,7 +5016,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>

--- a/second to ass time.xlsx
+++ b/second to ass time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - lijingze\文档\Video Encoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB66A4C-477F-43E8-8DD9-147FBCDED581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F3C12-D154-4EB5-8E6B-05348A79B6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5729345-2D38-4CFC-8151-5457CD233909}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:C536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C208" sqref="C1:C208"/>
+      <selection activeCell="C419" sqref="C1:C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -404,4819 +404,5452 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3.3380000000000001</v>
+        <v>1.26667</v>
       </c>
       <c r="B1" t="str">
         <f>TEXT(ROUNDDOWN(A1/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A1/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A1,60),3),"00.000")</f>
-        <v>0:00:03.338</v>
+        <v>0:00:01.267</v>
       </c>
       <c r="C1" t="str">
         <f>"Dialogue: 2,"&amp;B1&amp;","&amp;B2&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:03.338,0:00:04.704,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:01.267,0:00:02.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.7039999999999997</v>
+        <v>2.8666700000000001</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">TEXT(ROUNDDOWN(A2/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A2/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A2,60),3),"00.000")</f>
-        <v>0:00:04.704</v>
+        <v>0:00:02.867</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="1">"Dialogue: 2,"&amp;B2&amp;","&amp;B3&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:04.704,0:00:05.804,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:02.867,0:00:03.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5.8040000000000003</v>
+        <v>3.4</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:05.804</v>
+        <v>0:00:03.400</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:05.804,0:00:10.171,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:03.400,0:00:04.700,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10.170999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:10.171</v>
+        <v>0:00:04.700</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:10.171,0:00:12.038,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:04.700,0:00:05.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12.038</v>
+        <v>5.3333300000000001</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:12.038</v>
+        <v>0:00:05.333</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:12.038,0:00:15.505,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:05.333,0:00:06.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15.505000000000001</v>
+        <v>6.4666699999999997</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:15.505</v>
+        <v>0:00:06.467</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:15.505,0:00:18.604,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:06.467,0:00:07.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>18.603999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:18.604</v>
+        <v>0:00:07.900</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:18.604,0:00:20.138,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:07.900,0:00:09.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20.138000000000002</v>
+        <v>9.9</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:20.138</v>
+        <v>0:00:09.900</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:20.138,0:00:22.504,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:09.900,0:00:10.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22.504000000000001</v>
+        <v>10.8667</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:22.504</v>
+        <v>0:00:10.867</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:22.504,0:00:26.171,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:10.867,0:00:11.767,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>26.170999999999999</v>
+        <v>11.7667</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:26.171</v>
+        <v>0:00:11.767</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:26.171,0:00:31.288,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:11.767,0:00:12.300,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>31.288</v>
+        <v>12.3</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:31.288</v>
+        <v>0:00:12.300</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:31.288,0:00:32.771,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:12.300,0:00:13.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>32.771000000000001</v>
+        <v>13.533300000000001</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:32.771</v>
+        <v>0:00:13.533</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:32.771,0:00:35.388,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:13.533,0:00:15.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>35.387999999999998</v>
+        <v>15.2667</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:35.388</v>
+        <v>0:00:15.267</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:35.388,0:00:38.238,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:15.267,0:00:16.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>38.238</v>
+        <v>16.2333</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:38.238</v>
+        <v>0:00:16.233</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:38.238,0:00:40.054,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:16.233,0:00:20.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>40.054000000000002</v>
+        <v>20.2333</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:40.054</v>
+        <v>0:00:20.233</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:40.054,0:00:42.421,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:20.233,0:00:23.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>42.420999999999999</v>
+        <v>23.533300000000001</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:42.421</v>
+        <v>0:00:23.533</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:42.421,0:00:45.754,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:23.533,0:00:26.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>45.753999999999998</v>
+        <v>26.92</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:45.754</v>
+        <v>0:00:26.920</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:45.754,0:00:47.138,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:26.920,0:00:29.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>47.137999999999998</v>
+        <v>29.466699999999999</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:47.138</v>
+        <v>0:00:29.467</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:47.138,0:00:49.655,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:29.467,0:00:35.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>49.655000000000001</v>
+        <v>35</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:49.655</v>
+        <v>0:00:35.000</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:49.655,0:00:53.771,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:35.000,0:00:38.820,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>53.771000000000001</v>
+        <v>38.82</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:53.771</v>
+        <v>0:00:38.820</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:53.771,0:00:58.338,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:38.820,0:00:40.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58.338000000000001</v>
+        <v>40.633299999999998</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>0:00:58.338</v>
+        <v>0:00:40.633</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:00:58.338,0:01:00.371,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:40.633,0:00:43.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>60.371000000000002</v>
+        <v>43.92</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:00.371</v>
+        <v>0:00:43.920</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:00.371,0:01:03.071,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:43.920,0:00:54.920,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>63.070999999999998</v>
+        <v>54.92</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:03.071</v>
+        <v>0:00:54.920</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:03.071,0:01:05.154,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:54.920,0:00:55.967,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>65.153999999999996</v>
+        <v>55.966700000000003</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:05.154</v>
+        <v>0:00:55.967</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:05.154,0:01:08.521,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:55.967,0:00:56.520,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>68.521000000000001</v>
+        <v>56.52</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:08.521</v>
+        <v>0:00:56.520</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:08.521,0:01:10.154,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:56.520,0:00:57.667,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>70.153999999999996</v>
+        <v>57.666699999999999</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:10.154</v>
+        <v>0:00:57.667</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:10.154,0:01:11.587,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:57.667,0:00:59.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>71.587000000000003</v>
+        <v>59</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:11.587</v>
+        <v>0:00:59.000</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:11.587,0:01:13.004,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:59.000,0:00:59.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>73.004000000000005</v>
+        <v>59.8</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:13.004</v>
+        <v>0:00:59.800</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:13.004,0:01:14.021,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:00:59.800,0:01:00.700,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>74.021000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:14.021</v>
+        <v>0:01:00.700</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:14.021,0:01:16.288,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:00.700,0:01:01.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>76.287999999999997</v>
+        <v>61.466700000000003</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:16.288</v>
+        <v>0:01:01.467</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:16.288,0:01:17.721,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:01.467,0:01:01.667,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>77.721000000000004</v>
+        <v>61.666699999999999</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:17.721</v>
+        <v>0:01:01.667</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:17.721,0:01:18.988,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:01.667,0:01:01.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>78.988</v>
+        <v>61.9</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:18.988</v>
+        <v>0:01:01.900</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:18.988,0:01:20.738,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:01.900,0:01:02.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>80.738</v>
+        <v>62.2667</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:20.738</v>
+        <v>0:01:02.267</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:20.738,0:01:24.221,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:02.267,0:01:02.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>84.221000000000004</v>
+        <v>62.633299999999998</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:24.221</v>
+        <v>0:01:02.633</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:24.221,0:01:25.938,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:02.633,0:01:03.167,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>85.938000000000002</v>
+        <v>63.166699999999999</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:25.938</v>
+        <v>0:01:03.167</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:25.938,0:01:29.404,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:03.167,0:01:03.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>89.403999999999996</v>
+        <v>63.2333</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:29.404</v>
+        <v>0:01:03.233</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:29.404,0:01:33.138,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:03.233,0:01:04.067,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>93.138000000000005</v>
+        <v>64.066699999999997</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:33.138</v>
+        <v>0:01:04.067</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:33.138,0:01:36.087,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:04.067,0:01:05.067,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>96.087000000000003</v>
+        <v>65.066699999999997</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:36.087</v>
+        <v>0:01:05.067</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:36.087,0:01:38.237,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:05.067,0:01:05.767,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>98.236999999999995</v>
+        <v>65.7667</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:38.237</v>
+        <v>0:01:05.767</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:38.237,0:01:40.354,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:05.767,0:01:06.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>100.354</v>
+        <v>66.2</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:40.354</v>
+        <v>0:01:06.200</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:40.354,0:01:41.321,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:06.200,0:01:07.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>101.321</v>
+        <v>67.2333</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:41.321</v>
+        <v>0:01:07.233</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:41.321,0:01:44.087,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:07.233,0:01:09.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>104.087</v>
+        <v>69.566699999999997</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:44.087</v>
+        <v>0:01:09.567</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:44.087,0:01:45.354,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:09.567,0:01:11.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>105.354</v>
+        <v>71.533299999999997</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:45.354</v>
+        <v>0:01:11.533</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:45.354,0:01:49.771,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:11.533,0:01:12.933,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>109.771</v>
+        <v>72.933300000000003</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:49.771</v>
+        <v>0:01:12.933</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:49.771,0:01:51.705,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:12.933,0:01:13.967,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>111.705</v>
+        <v>73.966700000000003</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:51.705</v>
+        <v>0:01:13.967</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:51.705,0:01:53.721,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:13.967,0:01:15.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>113.721</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:53.721</v>
+        <v>0:01:15.900</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:53.721,0:01:56.938,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:15.900,0:01:17.067,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>116.938</v>
+        <v>77.066699999999997</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:56.938</v>
+        <v>0:01:17.067</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:56.938,0:01:59.338,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:17.067,0:01:17.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>119.33799999999999</v>
+        <v>77.466700000000003</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>0:01:59.338</v>
+        <v>0:01:17.467</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:01:59.338,0:02:01.104,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:17.467,0:01:18.710,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>121.104</v>
+        <v>78.709999999999994</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:01.104</v>
+        <v>0:01:18.710</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:01.104,0:02:05.505,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:18.710,0:01:19.833,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>125.505</v>
+        <v>79.833299999999994</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:05.505</v>
+        <v>0:01:19.833</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:05.505,0:02:08.071,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:19.833,0:01:21.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>128.071</v>
+        <v>81.533299999999997</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:08.071</v>
+        <v>0:01:21.533</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:08.071,0:02:09.671,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:21.533,0:01:22.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>129.67099999999999</v>
+        <v>82.866699999999994</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:09.671</v>
+        <v>0:01:22.867</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:09.671,0:02:11.871,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:22.867,0:01:26.710,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>131.87100000000001</v>
+        <v>86.71</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:11.871</v>
+        <v>0:01:26.710</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:11.871,0:02:14.805,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:26.710,0:01:27.700,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>134.80500000000001</v>
+        <v>87.7</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:14.805</v>
+        <v>0:01:27.700</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:14.805,0:02:17.021,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:27.700,0:01:29.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>137.02099999999999</v>
+        <v>89.533299999999997</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:17.021</v>
+        <v>0:01:29.533</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:17.021,0:02:19.955,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:29.533,0:01:30.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>139.95500000000001</v>
+        <v>90.333299999999994</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:19.955</v>
+        <v>0:01:30.333</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:19.955,0:02:23.788,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:30.333,0:01:30.967,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>143.78800000000001</v>
+        <v>90.966700000000003</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:23.788</v>
+        <v>0:01:30.967</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:23.788,0:02:25.838,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:30.967,0:01:31.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>145.83799999999999</v>
+        <v>91.8</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:25.838</v>
+        <v>0:01:31.800</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:25.838,0:02:26.755,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:31.800,0:01:32.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>146.755</v>
+        <v>92.466700000000003</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:26.755</v>
+        <v>0:01:32.467</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:26.755,0:02:28.321,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:32.467,0:01:33.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>148.321</v>
+        <v>93.2333</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:28.321</v>
+        <v>0:01:33.233</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:28.321,0:02:31.805,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:33.233,0:01:34.033,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>151.80500000000001</v>
+        <v>94.033299999999997</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:31.805</v>
+        <v>0:01:34.033</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:31.805,0:02:33.238,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:34.033,0:01:34.767,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>153.238</v>
+        <v>94.7667</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:33.238</v>
+        <v>0:01:34.767</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:33.238,0:02:34.405,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:34.767,0:01:36.500,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>154.405</v>
+        <v>96.5</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:34.405</v>
+        <v>0:01:36.500</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:34.405,0:02:37.305,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:36.500,0:01:37.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>157.30500000000001</v>
+        <v>97.2333</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:37.305</v>
+        <v>0:01:37.233</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:37.305,0:02:41.238,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:37.233,0:01:38.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>161.238</v>
+        <v>98.533299999999997</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>0:02:41.238</v>
+        <v>0:01:38.533</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>Dialogue: 2,0:02:41.238,0:02:42.588,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:38.533,0:01:39.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>162.58799999999999</v>
+        <v>99.466700000000003</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="2">TEXT(ROUNDDOWN(A66/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A66/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A66,60),3),"00.000")</f>
-        <v>0:02:42.588</v>
+        <v>0:01:39.467</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C129" si="3">"Dialogue: 2,"&amp;B66&amp;","&amp;B67&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:02:42.588,0:02:44.287,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:39.467,0:01:40.067,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>164.28700000000001</v>
+        <v>100.06699999999999</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:44.287</v>
+        <v>0:01:40.067</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:44.287,0:02:47.054,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:40.067,0:01:40.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>167.054</v>
+        <v>100.9</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:47.054</v>
+        <v>0:01:40.900</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:47.054,0:02:50.571,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:40.900,0:01:41.933,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>170.571</v>
+        <v>101.93300000000001</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:50.571</v>
+        <v>0:01:41.933</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:50.571,0:02:51.938,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:41.933,0:01:42.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>171.93799999999999</v>
+        <v>102.867</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:51.938</v>
+        <v>0:01:42.867</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:51.938,0:02:55.605,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:42.867,0:01:43.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>175.60499999999999</v>
+        <v>103.867</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:55.605</v>
+        <v>0:01:43.867</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:55.605,0:02:56.321,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:43.867,0:01:44.733,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>176.321</v>
+        <v>104.733</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:56.321</v>
+        <v>0:01:44.733</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:56.321,0:02:58.871,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:44.733,0:01:45.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>178.87100000000001</v>
+        <v>105.9</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>0:02:58.871</v>
+        <v>0:01:45.900</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:02:58.871,0:03:01.821,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:45.900,0:01:46.667,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>181.821</v>
+        <v>106.667</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:01.821</v>
+        <v>0:01:46.667</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:01.821,0:03:04.105,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:46.667,0:01:47.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>184.10499999999999</v>
+        <v>107.633</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:04.105</v>
+        <v>0:01:47.633</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:04.105,0:03:04.188,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:47.633,0:01:49.367,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>184.18799999999999</v>
+        <v>109.367</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:04.188</v>
+        <v>0:01:49.367</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:04.188,0:03:05.655,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:49.367,0:01:50.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>185.655</v>
+        <v>110.9</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:05.655</v>
+        <v>0:01:50.900</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:05.655,0:03:07.005,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:50.900,0:01:52.367,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>187.005</v>
+        <v>112.367</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:07.005</v>
+        <v>0:01:52.367</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:07.005,0:03:08.371,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:52.367,0:01:53.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>188.37100000000001</v>
+        <v>113.267</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:08.371</v>
+        <v>0:01:53.267</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:08.371,0:03:11.071,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:53.267,0:01:54.067,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>191.071</v>
+        <v>114.06699999999999</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:11.071</v>
+        <v>0:01:54.067</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:11.071,0:03:12.821,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:54.067,0:01:54.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>192.821</v>
+        <v>114.533</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:12.821</v>
+        <v>0:01:54.533</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:12.821,0:03:16.555,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:54.533,0:01:56.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>196.55500000000001</v>
+        <v>116.267</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:16.555</v>
+        <v>0:01:56.267</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:16.555,0:03:17.955,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:56.267,0:01:57.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>197.95500000000001</v>
+        <v>117.6</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:17.955</v>
+        <v>0:01:57.600</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:17.955,0:03:19.888,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:57.600,0:01:59.067,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>199.88800000000001</v>
+        <v>119.06699999999999</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:19.888</v>
+        <v>0:01:59.067</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:19.888,0:03:22.071,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:01:59.067,0:02:00.667,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>202.071</v>
+        <v>120.667</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:22.071</v>
+        <v>0:02:00.667</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:22.071,0:03:24.354,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:00.667,0:02:01.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>204.35400000000001</v>
+        <v>121.633</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:24.354</v>
+        <v>0:02:01.633</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:24.354,0:03:25.821,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:01.633,0:02:03.167,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>205.821</v>
+        <v>123.167</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:25.821</v>
+        <v>0:02:03.167</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:25.821,0:03:26.021,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:03.167,0:02:04.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>206.02099999999999</v>
+        <v>124.333</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:26.021</v>
+        <v>0:02:04.333</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:26.021,0:03:26.904,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:04.333,0:02:04.833,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>206.904</v>
+        <v>124.833</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:26.904</v>
+        <v>0:02:04.833</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:26.904,0:03:27.121,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:04.833,0:02:06.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>207.12100000000001</v>
+        <v>126</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:27.121</v>
+        <v>0:02:06.000</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:27.121,0:03:27.171,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:06.000,0:02:07.100,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>207.17099999999999</v>
+        <v>127.1</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:27.171</v>
+        <v>0:02:07.100</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:27.171,0:03:27.504,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:07.100,0:02:08.300,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>207.50399999999999</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:27.504</v>
+        <v>0:02:08.300</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:27.504,0:03:28.454,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:08.300,0:02:09.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>208.45400000000001</v>
+        <v>129.56700000000001</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:28.454</v>
+        <v>0:02:09.567</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:28.454,0:03:29.588,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:09.567,0:02:10.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>209.58799999999999</v>
+        <v>130.63300000000001</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:29.588</v>
+        <v>0:02:10.633</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:29.588,0:03:30.738,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:10.633,0:02:11.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>210.738</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:30.738</v>
+        <v>0:02:11.200</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:30.738,0:03:33.171,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:11.200,0:02:12.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>213.17099999999999</v>
+        <v>132.333</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:33.171</v>
+        <v>0:02:12.333</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:33.171,0:03:34.737,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:12.333,0:02:13.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>214.73699999999999</v>
+        <v>133.56700000000001</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:34.737</v>
+        <v>0:02:13.567</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:34.737,0:03:35.671,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:13.567,0:02:14.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>215.67099999999999</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:35.671</v>
+        <v>0:02:14.800</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:35.671,0:03:37.571,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:14.800,0:02:16.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>217.571</v>
+        <v>136.233</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:37.571</v>
+        <v>0:02:16.233</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:37.571,0:03:39.088,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:16.233,0:02:16.733,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>219.08799999999999</v>
+        <v>136.733</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:39.088</v>
+        <v>0:02:16.733</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:39.088,0:03:40.405,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:16.733,0:02:18.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>220.405</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:40.405</v>
+        <v>0:02:18.200</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:40.405,0:03:42.571,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:18.200,0:02:19.033,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>222.571</v>
+        <v>139.03299999999999</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:42.571</v>
+        <v>0:02:19.033</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:42.571,0:03:44.404,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:19.033,0:02:19.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>224.404</v>
+        <v>139.333</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:44.404</v>
+        <v>0:02:19.333</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:44.404,0:03:47.237,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:19.333,0:02:20.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>227.23699999999999</v>
+        <v>140.4</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:47.237</v>
+        <v>0:02:20.400</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:47.237,0:03:49.021,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:20.400,0:02:21.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>229.02099999999999</v>
+        <v>141.267</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:49.021</v>
+        <v>0:02:21.267</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:49.021,0:03:49.938,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:21.267,0:02:22.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>229.93799999999999</v>
+        <v>142.333</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:49.938</v>
+        <v>0:02:22.333</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:49.938,0:03:54.154,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:22.333,0:02:23.300,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>234.154</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:54.154</v>
+        <v>0:02:23.300</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:54.154,0:03:55.904,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:23.300,0:02:24.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>235.904</v>
+        <v>144.86699999999999</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:55.904</v>
+        <v>0:02:24.867</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:55.904,0:03:57.471,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:24.867,0:02:27.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>237.471</v>
+        <v>147.46700000000001</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:57.471</v>
+        <v>0:02:27.467</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:57.471,0:03:59.188,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:27.467,0:02:28.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>239.18799999999999</v>
+        <v>148.6</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="2"/>
-        <v>0:03:59.188</v>
+        <v>0:02:28.600</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:03:59.188,0:04:02.238,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:28.600,0:02:29.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>242.238</v>
+        <v>149.6</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:02.238</v>
+        <v>0:02:29.600</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:02.238,0:04:03.921,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:29.600,0:02:31.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>243.92099999999999</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:03.921</v>
+        <v>0:02:31.200</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:03.921,0:04:05.504,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:31.200,0:02:39.167,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>245.50399999999999</v>
+        <v>159.167</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:05.504</v>
+        <v>0:02:39.167</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:05.504,0:04:07.271,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:39.167,0:02:41.367,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>247.27099999999999</v>
+        <v>161.36699999999999</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:07.271</v>
+        <v>0:02:41.367</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:07.271,0:04:09.321,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:41.367,0:02:43.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>249.321</v>
+        <v>163.46700000000001</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:09.321</v>
+        <v>0:02:43.467</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:09.321,0:04:11.721,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:43.467,0:02:45.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>251.721</v>
+        <v>165.56700000000001</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:11.721</v>
+        <v>0:02:45.567</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:11.721,0:04:12.771,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:45.567,0:02:46.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>252.77099999999999</v>
+        <v>166.6</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:12.771</v>
+        <v>0:02:46.600</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:12.771,0:04:14.337,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:46.600,0:02:49.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>254.33699999999999</v>
+        <v>169</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:14.337</v>
+        <v>0:02:49.000</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:14.337,0:04:17.254,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:49.000,0:02:50.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>257.25400000000002</v>
+        <v>170.333</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:17.254</v>
+        <v>0:02:50.333</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:17.254,0:04:18.687,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:50.333,0:02:51.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>258.68700000000001</v>
+        <v>171.267</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:18.687</v>
+        <v>0:02:51.267</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:18.687,0:04:20.871,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:51.267,0:02:51.733,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>260.87099999999998</v>
+        <v>171.733</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:20.871</v>
+        <v>0:02:51.733</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:20.871,0:04:22.587,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:51.733,0:02:52.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>262.58699999999999</v>
+        <v>172.46700000000001</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:22.587</v>
+        <v>0:02:52.467</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:22.587,0:04:22.854,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:52.467,0:02:53.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>262.85399999999998</v>
+        <v>173.46700000000001</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:22.854</v>
+        <v>0:02:53.467</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:22.854,0:04:25.354,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:53.467,0:02:54.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>265.35399999999998</v>
+        <v>174.46700000000001</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:25.354</v>
+        <v>0:02:54.467</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:25.354,0:04:26.837,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:54.467,0:02:55.067,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>266.83699999999999</v>
+        <v>175.06700000000001</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:26.837</v>
+        <v>0:02:55.067</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:26.837,0:04:28.221,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:02:55.067,0:03:06.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>268.221</v>
+        <v>186.333</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:28.221</v>
+        <v>0:03:06.333</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:28.221,0:04:29.938,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:06.333,0:03:07.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>269.93799999999999</v>
+        <v>187.86699999999999</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:29.938</v>
+        <v>0:03:07.867</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:29.938,0:04:33.071,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:07.867,0:03:09.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>273.07100000000003</v>
+        <v>189.2</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:33.071</v>
+        <v>0:03:09.200</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:33.071,0:04:38.271,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:09.200,0:03:11.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>278.27100000000002</v>
+        <v>191.4</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="2"/>
-        <v>0:04:38.271</v>
+        <v>0:03:11.400</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="3"/>
-        <v>Dialogue: 2,0:04:38.271,0:04:40.021,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:11.400,0:03:18.733,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>280.02100000000002</v>
+        <v>198.733</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B193" si="4">TEXT(ROUNDDOWN(A130/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A130/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A130,60),3),"00.000")</f>
-        <v>0:04:40.021</v>
+        <v>0:03:18.733</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" ref="C130:C193" si="5">"Dialogue: 2,"&amp;B130&amp;","&amp;B131&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:04:40.021,0:04:40.954,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:18.733,0:03:19.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>280.95400000000001</v>
+        <v>199.46700000000001</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:40.954</v>
+        <v>0:03:19.467</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:40.954,0:04:41.954,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:19.467,0:03:20.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>281.95400000000001</v>
+        <v>200.6</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:41.954</v>
+        <v>0:03:20.600</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:41.954,0:04:43.104,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:20.600,0:03:21.500,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>283.10399999999998</v>
+        <v>201.5</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:43.104</v>
+        <v>0:03:21.500</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:43.104,0:04:44.921,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:21.500,0:03:25.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>284.92099999999999</v>
+        <v>205.6</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:44.921</v>
+        <v>0:03:25.600</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:44.921,0:04:48.221,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:25.600,0:03:26.500,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>288.221</v>
+        <v>206.5</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:48.221</v>
+        <v>0:03:26.500</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:48.221,0:04:49.388,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:26.500,0:03:27.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>289.38799999999998</v>
+        <v>207.6</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:49.388</v>
+        <v>0:03:27.600</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:49.388,0:04:50.938,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:27.600,0:03:28.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>290.93799999999999</v>
+        <v>208.333</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:50.938</v>
+        <v>0:03:28.333</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:50.938,0:04:52.437,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:28.333,0:03:29.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>292.43700000000001</v>
+        <v>209.9</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:52.437</v>
+        <v>0:03:29.900</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:52.437,0:04:54.671,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:29.900,0:03:30.500,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>294.67099999999999</v>
+        <v>210.5</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:54.671</v>
+        <v>0:03:30.500</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:54.671,0:04:56.754,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:30.500,0:03:31.367,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>296.75400000000002</v>
+        <v>211.36699999999999</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:56.754</v>
+        <v>0:03:31.367</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:56.754,0:04:59.204,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:31.367,0:03:32.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>299.20400000000001</v>
+        <v>212.63300000000001</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="4"/>
-        <v>0:04:59.204</v>
+        <v>0:03:32.633</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:04:59.204,0:05:02.537,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:32.633,0:03:33.833,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>302.53699999999998</v>
+        <v>213.833</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:02.537</v>
+        <v>0:03:33.833</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:02.537,0:05:04.738,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:33.833,0:03:34.433,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>304.738</v>
+        <v>214.43299999999999</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:04.738</v>
+        <v>0:03:34.433</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:04.738,0:05:06.188,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:34.433,0:03:35.367,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>306.18799999999999</v>
+        <v>215.36699999999999</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:06.188</v>
+        <v>0:03:35.367</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:06.188,0:05:07.805,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:35.367,0:03:36.300,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>307.80500000000001</v>
+        <v>216.3</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:07.805</v>
+        <v>0:03:36.300</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:07.805,0:05:09.405,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:36.300,0:03:37.167,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>309.40499999999997</v>
+        <v>217.167</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:09.405</v>
+        <v>0:03:37.167</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:09.405,0:05:13.321,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:37.167,0:03:46.467,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>313.32100000000003</v>
+        <v>226.46700000000001</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:13.321</v>
+        <v>0:03:46.467</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:13.321,0:05:17.054,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:46.467,0:03:48.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>317.05399999999997</v>
+        <v>228</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:17.054</v>
+        <v>0:03:48.000</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:17.054,0:05:18.571,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:48.000,0:03:49.712,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>318.57100000000003</v>
+        <v>229.71199999999999</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:18.571</v>
+        <v>0:03:49.712</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:18.571,0:05:22.021,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:49.712,0:03:51.700,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>322.02100000000002</v>
+        <v>231.7</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:22.021</v>
+        <v>0:03:51.700</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:22.021,0:05:23.921,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:51.700,0:03:52.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>323.92099999999999</v>
+        <v>232.63300000000001</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:23.921</v>
+        <v>0:03:52.633</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:23.921,0:05:25.587,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:52.633,0:03:54.033,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>325.58699999999999</v>
+        <v>234.03299999999999</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:25.587</v>
+        <v>0:03:54.033</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:25.587,0:05:27.054,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:54.033,0:03:54.512,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>327.05399999999997</v>
+        <v>234.512</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:27.054</v>
+        <v>0:03:54.512</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:27.054,0:05:28.971,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:54.512,0:03:55.100,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>328.971</v>
+        <v>235.1</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:28.971</v>
+        <v>0:03:55.100</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:28.971,0:05:31.538,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:55.100,0:03:56.033,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>331.53800000000001</v>
+        <v>236.03299999999999</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:31.538</v>
+        <v>0:03:56.033</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:31.538,0:05:33.355,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:56.033,0:03:56.967,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>333.35500000000002</v>
+        <v>236.96700000000001</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:33.355</v>
+        <v>0:03:56.967</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:33.355,0:05:35.638,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:56.967,0:03:58.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>335.63799999999998</v>
+        <v>238.2</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:35.638</v>
+        <v>0:03:58.200</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:35.638,0:05:39.037,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:58.200,0:03:59.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>339.03699999999998</v>
+        <v>239.56700000000001</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:39.037</v>
+        <v>0:03:59.567</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:39.037,0:05:42.188,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:03:59.567,0:04:01.612,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>342.18799999999999</v>
+        <v>241.61199999999999</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:42.188</v>
+        <v>0:04:01.612</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:42.188,0:05:44.771,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:01.612,0:04:02.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>344.77100000000002</v>
+        <v>242.6</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:44.771</v>
+        <v>0:04:02.600</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:44.771,0:05:48.421,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:02.600,0:04:06.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>348.42099999999999</v>
+        <v>246.53299999999999</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:48.421</v>
+        <v>0:04:06.533</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:48.421,0:05:50.655,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:06.533,0:04:07.767,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>350.65499999999997</v>
+        <v>247.767</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:50.655</v>
+        <v>0:04:07.767</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:50.655,0:05:52.238,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:07.767,0:04:08.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>352.238</v>
+        <v>248.56700000000001</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:52.238</v>
+        <v>0:04:08.567</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:52.238,0:05:53.937,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:08.567,0:04:09.700,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>353.93700000000001</v>
+        <v>249.7</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:53.937</v>
+        <v>0:04:09.700</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:53.937,0:05:57.788,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:09.700,0:04:18.112,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>357.78800000000001</v>
+        <v>258.11200000000002</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:57.788</v>
+        <v>0:04:18.112</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:57.788,0:05:59.105,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:18.112,0:04:19.500,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>359.10500000000002</v>
+        <v>259.5</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="4"/>
-        <v>0:05:59.105</v>
+        <v>0:04:19.500</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:05:59.105,0:06:03.221,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:19.500,0:04:22.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>363.221</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:03.221</v>
+        <v>0:04:22.400</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:03.221,0:06:04.088,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:22.400,0:04:24.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>364.08800000000002</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:04.088</v>
+        <v>0:04:24.600</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:04.088,0:06:06.571,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:24.600,0:04:26.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>366.57100000000003</v>
+        <v>266.60000000000002</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:06.571</v>
+        <v>0:04:26.600</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:06.571,0:06:09.004,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:26.600,0:04:27.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>369.00400000000002</v>
+        <v>267.86700000000002</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:09.004</v>
+        <v>0:04:27.867</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:09.004,0:06:13.071,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:27.867,0:04:29.833,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>373.07100000000003</v>
+        <v>269.83300000000003</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:13.071</v>
+        <v>0:04:29.833</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:13.071,0:06:17.371,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:29.833,0:04:30.633,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>377.37099999999998</v>
+        <v>270.63299999999998</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:17.371</v>
+        <v>0:04:30.633</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:17.371,0:06:19.705,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:30.633,0:04:31.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>379.70499999999998</v>
+        <v>271.86700000000002</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:19.705</v>
+        <v>0:04:31.867</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:19.705,0:06:21.655,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:31.867,0:04:33.833,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>381.65499999999997</v>
+        <v>273.83300000000003</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:21.655</v>
+        <v>0:04:33.833</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:21.655,0:06:24.255,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:33.833,0:04:35.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>384.255</v>
+        <v>275.2</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:24.255</v>
+        <v>0:04:35.200</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:24.255,0:06:27.021,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:35.200,0:04:36.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>387.02100000000002</v>
+        <v>276.267</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:27.021</v>
+        <v>0:04:36.267</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:27.021,0:06:31.871,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:36.267,0:04:37.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>391.87099999999998</v>
+        <v>277.86700000000002</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:31.871</v>
+        <v>0:04:37.867</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:31.871,0:06:35.554,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:37.867,0:04:38.867,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>395.55399999999997</v>
+        <v>278.86700000000002</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:35.554</v>
+        <v>0:04:38.867</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:35.554,0:06:40.571,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:38.867,0:04:39.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>400.57100000000003</v>
+        <v>279.56700000000001</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:40.571</v>
+        <v>0:04:39.567</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:40.571,0:06:41.554,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:39.567,0:04:41.667,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>401.55399999999997</v>
+        <v>281.66699999999997</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:41.554</v>
+        <v>0:04:41.667</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:41.554,0:06:43.987,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:41.667,0:04:42.167,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>403.98700000000002</v>
+        <v>282.16699999999997</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:43.987</v>
+        <v>0:04:42.167</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:43.987,0:06:46.888,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:42.167,0:04:43.167,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>406.88799999999998</v>
+        <v>283.16699999999997</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:46.888</v>
+        <v>0:04:43.167</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:46.888,0:06:51.388,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:43.167,0:04:44.233,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>411.38799999999998</v>
+        <v>284.233</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:51.388</v>
+        <v>0:04:44.233</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:51.388,0:06:52.604,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:44.233,0:04:45.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>412.60399999999998</v>
+        <v>285.53300000000002</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:52.604</v>
+        <v>0:04:45.533</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:52.604,0:06:54.338,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:45.533,0:04:46.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>414.33800000000002</v>
+        <v>286.56700000000001</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:54.338</v>
+        <v>0:04:46.567</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:54.338,0:06:56.654,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:46.567,0:04:47.200,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>416.654</v>
+        <v>287.2</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="4"/>
-        <v>0:06:56.654</v>
+        <v>0:04:47.200</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:06:56.654,0:07:00.388,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:47.200,0:04:48.133,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>420.38799999999998</v>
+        <v>288.13299999999998</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="4"/>
-        <v>0:07:00.388</v>
+        <v>0:04:48.133</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:07:00.388,0:07:03.554,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:48.133,0:04:49.167,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>423.55399999999997</v>
+        <v>289.16699999999997</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="4"/>
-        <v>0:07:03.554</v>
+        <v>0:04:49.167</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:07:03.554,0:07:05.721,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:49.167,0:04:49.900,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>425.721</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="4"/>
-        <v>0:07:05.721</v>
+        <v>0:04:49.900</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:07:05.721,0:07:07.654,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:49.900,0:04:52.400,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>427.654</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="4"/>
-        <v>0:07:07.654</v>
+        <v>0:04:52.400</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:07:07.654,0:07:09.554,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:52.400,0:04:54.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>429.55399999999997</v>
+        <v>294.267</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="4"/>
-        <v>0:07:09.554</v>
+        <v>0:04:54.267</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:07:09.554,0:07:11.754,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:54.267,0:04:54.933,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>431.75400000000002</v>
+        <v>294.93299999999999</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="4"/>
-        <v>0:07:11.754</v>
+        <v>0:04:54.933</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:07:11.754,0:07:13.537,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:54.933,0:04:55.933,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>433.53699999999998</v>
+        <v>295.93299999999999</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="4"/>
-        <v>0:07:13.537</v>
+        <v>0:04:55.933</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="5"/>
-        <v>Dialogue: 2,0:07:13.537,0:07:15.971,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:55.933,8:496:52.000,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>435.971</v>
+        <v>29812</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" ref="B194:B257" si="6">TEXT(ROUNDDOWN(A194/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A194/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A194,60),3),"00.000")</f>
-        <v>0:07:15.971</v>
+        <v>8:496:52.000</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" ref="C194:C257" si="7">"Dialogue: 2,"&amp;B194&amp;","&amp;B195&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:07:15.971,0:07:17.288,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,8:496:52.000,0:04:58.700,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>437.28800000000001</v>
+        <v>298.7</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:17.288</v>
+        <v>0:04:58.700</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:17.288,0:07:19.521,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:04:58.700,0:05:03.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>439.52100000000002</v>
+        <v>303.267</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:19.521</v>
+        <v>0:05:03.267</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:19.521,0:07:20.371,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:03.267,0:05:04.533,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>440.37099999999998</v>
+        <v>304.53300000000002</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:20.371</v>
+        <v>0:05:04.533</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:20.371,0:07:22.171,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:04.533,0:05:05.967,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>442.17099999999999</v>
+        <v>305.96699999999998</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:22.171</v>
+        <v>0:05:05.967</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:22.171,0:07:24.938,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:05.967,0:05:10.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>444.93799999999999</v>
+        <v>310.267</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:24.938</v>
+        <v>0:05:10.267</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:24.938,0:07:26.855,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:10.267,0:05:17.267,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>446.85500000000002</v>
+        <v>317.267</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:26.855</v>
+        <v>0:05:17.267</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:26.855,0:07:30.305,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:17.267,0:05:22.967,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>450.30500000000001</v>
+        <v>322.96699999999998</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:30.305</v>
+        <v>0:05:22.967</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:30.305,0:07:33.871,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:22.967,0:05:23.833,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>453.87099999999998</v>
+        <v>323.83300000000003</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:33.871</v>
+        <v>0:05:23.833</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:33.871,0:07:35.605,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:23.833,0:05:24.567,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>455.60500000000002</v>
+        <v>324.56700000000001</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:35.605</v>
+        <v>0:05:24.567</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:35.605,0:07:36.488,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:24.567,0:05:25.600,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>456.488</v>
+        <v>325.60000000000002</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:36.488</v>
+        <v>0:05:25.600</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:36.488,0:07:38.855,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:25.600,0:05:26.800,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>458.85500000000002</v>
+        <v>326.8</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:38.855</v>
+        <v>0:05:26.800</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:38.855,0:07:41.555,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:26.800,0:05:27.300,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>461.55500000000001</v>
+        <v>327.3</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:41.555</v>
+        <v>0:05:27.300</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:41.555,0:07:42.571,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:27.300,0:05:28.333,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>462.57100000000003</v>
+        <v>328.33300000000003</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:42.571</v>
+        <v>0:05:28.333</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:42.571,0:07:45.771,Default,,0,0,0,,</v>
+        <v>Dialogue: 2,0:05:28.333,0:05:29.700,Default,,0,0,0,,</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>465.77100000000002</v>
+        <v>329.7</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="6"/>
-        <v>0:07:45.771</v>
+        <v>0:05:29.700</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:07:45.771,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:29.700,0:05:31.133,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>331.13299999999998</v>
+      </c>
       <c r="B209" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:31.133</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:31.133,0:05:32.667,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>332.66699999999997</v>
+      </c>
       <c r="B210" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:32.667</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:32.667,0:05:34.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>334.2</v>
+      </c>
       <c r="B211" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:34.200</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:34.200,0:05:35.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>335.06700000000001</v>
+      </c>
       <c r="B212" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:35.067</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:35.067,0:05:36.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>336.36700000000002</v>
+      </c>
       <c r="B213" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:36.367</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:36.367,0:05:37.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>337.56700000000001</v>
+      </c>
       <c r="B214" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:37.567</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:37.567,0:05:45.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>345.7</v>
+      </c>
       <c r="B215" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:45.700</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:45.700,0:05:47.100,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>347.1</v>
+      </c>
       <c r="B216" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:47.100</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:47.100,0:05:48.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>348.33300000000003</v>
+      </c>
       <c r="B217" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:48.333</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:48.333,9:583:32.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>35012</v>
+      </c>
       <c r="B218" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>9:583:32.000</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,9:583:32.000,0:05:50.600,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>350.6</v>
+      </c>
       <c r="B219" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:50.600</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:50.600,0:05:52.733,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>352.733</v>
+      </c>
       <c r="B220" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:52.733</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:52.733,0:05:54.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>354</v>
+      </c>
       <c r="B221" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:54.000</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:54.000,0:05:55.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>355.7</v>
+      </c>
       <c r="B222" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:55.700</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:55.700,0:05:57.267,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>357.267</v>
+      </c>
       <c r="B223" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:57.267</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:57.267,0:05:58.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>358.33300000000003</v>
+      </c>
       <c r="B224" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:05:58.333</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:05:58.333,0:06:00.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>360.2</v>
+      </c>
       <c r="B225" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:00.200</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:00.200,0:06:02.167,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>362.16699999999997</v>
+      </c>
       <c r="B226" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:02.167</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:02.167,0:06:03.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>363.56700000000001</v>
+      </c>
       <c r="B227" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:03.567</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:03.567,0:06:05.500,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>365.5</v>
+      </c>
       <c r="B228" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:05.500</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:05.500,0:06:09.133,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>369.13299999999998</v>
+      </c>
       <c r="B229" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:09.133</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:09.133,0:06:09.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>369.86700000000002</v>
+      </c>
       <c r="B230" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:09.867</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:09.867,0:06:11.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>371.46699999999998</v>
+      </c>
       <c r="B231" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:11.467</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:11.467,0:06:12.900,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>372.9</v>
+      </c>
       <c r="B232" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:12.900</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:12.900,0:06:14.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>374.4</v>
+      </c>
       <c r="B233" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:14.400</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:14.400,0:06:15.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>375.46699999999998</v>
+      </c>
       <c r="B234" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:15.467</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:15.467,0:06:16.800,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>376.8</v>
+      </c>
       <c r="B235" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:16.800</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:16.800,0:06:18.100,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>378.1</v>
+      </c>
       <c r="B236" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:18.100</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:18.100,0:06:19.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>379.33300000000003</v>
+      </c>
       <c r="B237" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:19.333</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:19.333,0:06:20.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>380.4</v>
+      </c>
       <c r="B238" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:20.400</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:20.400,0:06:21.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>381.03300000000002</v>
+      </c>
       <c r="B239" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:21.033</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:21.033,0:06:22.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>382.06700000000001</v>
+      </c>
       <c r="B240" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:22.067</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:22.067,0:06:24.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>384</v>
+      </c>
       <c r="B241" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:24.000</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:24.000,0:06:25.600,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>385.6</v>
+      </c>
       <c r="B242" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:25.600</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:25.600,0:06:26.267,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>386.267</v>
+      </c>
       <c r="B243" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:26.267</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:26.267,0:06:26.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>386.86700000000002</v>
+      </c>
       <c r="B244" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:26.867</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:26.867,0:06:27.633,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>387.63299999999998</v>
+      </c>
       <c r="B245" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:27.633</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:27.633,0:06:28.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>388.36700000000002</v>
+      </c>
       <c r="B246" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:28.367</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:28.367,0:06:30.167,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>390.16699999999997</v>
+      </c>
       <c r="B247" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:30.167</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:30.167,0:06:31.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>391.2</v>
+      </c>
       <c r="B248" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:31.200</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:31.200,0:06:33.600,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>393.6</v>
+      </c>
       <c r="B249" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:33.600</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:33.600,0:06:34.967,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>394.96699999999998</v>
+      </c>
       <c r="B250" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:34.967</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:34.967,0:06:35.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>395.7</v>
+      </c>
       <c r="B251" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:35.700</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:35.700,0:06:37.733,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>397.733</v>
+      </c>
       <c r="B252" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:37.733</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:37.733,0:06:39.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>399.03300000000002</v>
+      </c>
       <c r="B253" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:39.033</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:39.033,0:06:40.433,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>400.43299999999999</v>
+      </c>
       <c r="B254" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:40.433</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:40.433,0:06:41.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>401.4</v>
+      </c>
       <c r="B255" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:41.400</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:41.400,0:06:42.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>402</v>
+      </c>
       <c r="B256" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:42.000</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:42.000,0:06:43.667,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>403.66699999999997</v>
+      </c>
       <c r="B257" t="str">
         <f t="shared" si="6"/>
-        <v>0:00:00.000</v>
+        <v>0:06:43.667</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="7"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:43.667,0:06:45.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>405.4</v>
+      </c>
       <c r="B258" t="str">
         <f t="shared" ref="B258:B321" si="8">TEXT(ROUNDDOWN(A258/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A258/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A258,60),3),"00.000")</f>
-        <v>0:00:00.000</v>
+        <v>0:06:45.400</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C321" si="9">"Dialogue: 2,"&amp;B258&amp;","&amp;B259&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:45.400,0:06:46.800,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>406.8</v>
+      </c>
       <c r="B259" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:46.800</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:46.800,0:06:49.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>409</v>
+      </c>
       <c r="B260" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:49.000</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:49.000,0:06:50.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>410.4</v>
+      </c>
       <c r="B261" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:50.400</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:50.400,0:06:51.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>411.86700000000002</v>
+      </c>
       <c r="B262" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:51.867</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:51.867,0:06:52.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>412.56700000000001</v>
+      </c>
       <c r="B263" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:52.567</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:52.567,0:06:53.133,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>413.13299999999998</v>
+      </c>
       <c r="B264" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:53.133</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:53.133,0:06:54.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>414.03300000000002</v>
+      </c>
       <c r="B265" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:54.033</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:54.033,0:06:54.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>414.767</v>
+      </c>
       <c r="B266" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:54.767</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:54.767,0:06:55.600,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>415.6</v>
+      </c>
       <c r="B267" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:55.600</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:55.600,0:06:56.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>416.3</v>
+      </c>
       <c r="B268" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:56.300</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:56.300,0:06:57.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>417.03300000000002</v>
+      </c>
       <c r="B269" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:57.033</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:57.033,0:06:58.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>418.3</v>
+      </c>
       <c r="B270" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:58.300</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:58.300,0:06:59.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>419.56700000000001</v>
+      </c>
       <c r="B271" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:06:59.567</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:06:59.567,0:07:00.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>420.46699999999998</v>
+      </c>
       <c r="B272" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:00.467</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:00.467,0:07:01.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>421.56700000000001</v>
+      </c>
       <c r="B273" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:01.567</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:01.567,0:07:04.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>424.36700000000002</v>
+      </c>
       <c r="B274" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:04.367</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:04.367,0:07:07.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>427.36700000000002</v>
+      </c>
       <c r="B275" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:07.367</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:07.367,0:07:07.900,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>427.9</v>
+      </c>
       <c r="B276" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:07.900</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:07.900,0:07:09.533,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>429.53300000000002</v>
+      </c>
       <c r="B277" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:09.533</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:09.533,0:07:11.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>431.7</v>
+      </c>
       <c r="B278" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:11.700</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:11.700,0:07:12.133,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>432.13299999999998</v>
+      </c>
       <c r="B279" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:12.133</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:12.133,0:07:13.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>433.33300000000003</v>
+      </c>
       <c r="B280" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:13.333</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:13.333,0:07:14.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>434.33300000000003</v>
+      </c>
       <c r="B281" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:14.333</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:14.333,0:07:15.167,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>435.16699999999997</v>
+      </c>
       <c r="B282" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:15.167</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:15.167,0:07:16.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>436.7</v>
+      </c>
       <c r="B283" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:16.700</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:16.700,0:07:17.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>437.86700000000002</v>
+      </c>
       <c r="B284" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:17.867</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:17.867,0:07:19.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>439</v>
+      </c>
       <c r="B285" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:19.000</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:19.000,0:07:21.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>441.36700000000002</v>
+      </c>
       <c r="B286" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:21.367</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:21.367,0:07:22.600,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>442.6</v>
+      </c>
       <c r="B287" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:22.600</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:22.600,0:07:23.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>443.36700000000002</v>
+      </c>
       <c r="B288" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:23.367</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:23.367,0:07:24.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>444.767</v>
+      </c>
       <c r="B289" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:24.767</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:24.767,0:07:25.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>445.3</v>
+      </c>
       <c r="B290" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:25.300</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:25.300,0:07:26.633,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>446.63299999999998</v>
+      </c>
       <c r="B291" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:26.633</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:26.633,0:07:27.900,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>447.9</v>
+      </c>
       <c r="B292" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:27.900</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:27.900,0:07:29.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>449</v>
+      </c>
       <c r="B293" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:29.000</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:29.000,0:07:30.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>450.86700000000002</v>
+      </c>
       <c r="B294" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:30.867</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:30.867,0:07:33.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>453.767</v>
+      </c>
       <c r="B295" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:33.767</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:33.767,0:07:34.833,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>454.83300000000003</v>
+      </c>
       <c r="B296" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:34.833</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:34.833,0:07:36.967,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>456.96699999999998</v>
+      </c>
       <c r="B297" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:36.967</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:36.967,0:07:38.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>458.33300000000003</v>
+      </c>
       <c r="B298" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:38.333</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:38.333,0:07:39.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>459.767</v>
+      </c>
       <c r="B299" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:39.767</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:39.767,0:07:40.900,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>460.9</v>
+      </c>
       <c r="B300" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:40.900</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:40.900,0:07:42.533,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>462.53300000000002</v>
+      </c>
       <c r="B301" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:42.533</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:42.533,0:07:43.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>463.7</v>
+      </c>
       <c r="B302" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:43.700</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:43.700,0:07:44.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>464.7</v>
+      </c>
       <c r="B303" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:44.700</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:44.700,0:07:46.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>466.03300000000002</v>
+      </c>
       <c r="B304" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:46.033</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:46.033,0:07:47.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>467.2</v>
+      </c>
       <c r="B305" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:47.200</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:47.200,0:07:48.667,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>468.66699999999997</v>
+      </c>
       <c r="B306" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:48.667</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:48.667,0:07:50.120,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>470.12</v>
+      </c>
       <c r="B307" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:50.120</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:50.120,0:07:51.933,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>471.93299999999999</v>
+      </c>
       <c r="B308" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:51.933</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:51.933,0:07:53.533,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>473.53300000000002</v>
+      </c>
       <c r="B309" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:53.533</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:53.533,0:07:54.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>474.56700000000001</v>
+      </c>
       <c r="B310" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:54.567</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:54.567,0:07:56.967,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>476.96699999999998</v>
+      </c>
       <c r="B311" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:56.967</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:56.967,0:07:58.833,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>478.83300000000003</v>
+      </c>
       <c r="B312" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:58.833</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:58.833,0:07:59.433,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>479.43299999999999</v>
+      </c>
       <c r="B313" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:07:59.433</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:07:59.433,0:08:01.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>481.36700000000002</v>
+      </c>
       <c r="B314" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:01.367</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:01.367,0:08:01.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>481.86700000000002</v>
+      </c>
       <c r="B315" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:01.867</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:01.867,0:08:03.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>483.56700000000001</v>
+      </c>
       <c r="B316" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:03.567</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:03.567,0:08:04.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>484.7</v>
+      </c>
       <c r="B317" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:04.700</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:04.700,0:08:06.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>486.06700000000001</v>
+      </c>
       <c r="B318" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:06.067</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:06.067,0:08:07.733,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>487.733</v>
+      </c>
       <c r="B319" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:07.733</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:07.733,0:08:08.667,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>488.66699999999997</v>
+      </c>
       <c r="B320" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:08.667</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:08.667,0:08:09.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>489.2</v>
+      </c>
       <c r="B321" t="str">
         <f t="shared" si="8"/>
-        <v>0:00:00.000</v>
+        <v>0:08:09.200</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="9"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:09.200,0:08:09.933,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>489.93299999999999</v>
+      </c>
       <c r="B322" t="str">
         <f t="shared" ref="B322:B385" si="10">TEXT(ROUNDDOWN(A322/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A322/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A322,60),3),"00.000")</f>
-        <v>0:00:00.000</v>
+        <v>0:08:09.933</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" ref="C322:C385" si="11">"Dialogue: 2,"&amp;B322&amp;","&amp;B323&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:09.933,0:08:11.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>491</v>
+      </c>
       <c r="B323" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:11.000</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:11.000,0:08:12.100,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>492.1</v>
+      </c>
       <c r="B324" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:12.100</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:12.100,0:08:13.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>493.06700000000001</v>
+      </c>
       <c r="B325" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:13.067</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:13.067,0:08:14.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>494.06700000000001</v>
+      </c>
       <c r="B326" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:14.067</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:14.067,0:08:15.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>495.06700000000001</v>
+      </c>
       <c r="B327" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:15.067</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:15.067,0:08:15.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>495.33300000000003</v>
+      </c>
       <c r="B328" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:15.333</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:15.333,0:08:15.800,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>495.8</v>
+      </c>
       <c r="B329" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:15.800</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:15.800,0:08:17.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>497</v>
+      </c>
       <c r="B330" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:17.000</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:17.000,0:08:18.533,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>498.53300000000002</v>
+      </c>
       <c r="B331" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:18.533</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:18.533,0:08:19.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>499.03300000000002</v>
+      </c>
       <c r="B332" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:19.033</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:19.033,0:08:20.833,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>500.83300000000003</v>
+      </c>
       <c r="B333" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:20.833</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:20.833,0:08:22.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>502.4</v>
+      </c>
       <c r="B334" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:22.400</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:22.400,0:08:23.433,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>503.43299999999999</v>
+      </c>
       <c r="B335" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:23.433</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:23.433,0:08:24.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>504.56700000000001</v>
+      </c>
       <c r="B336" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:24.567</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:24.567,0:08:26.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>506.7</v>
+      </c>
       <c r="B337" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:26.700</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:26.700,0:08:28.500,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>508.5</v>
+      </c>
       <c r="B338" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:28.500</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:28.500,0:08:29.833,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>509.83300000000003</v>
+      </c>
       <c r="B339" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:29.833</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:29.833,0:08:31.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>511.3</v>
+      </c>
       <c r="B340" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:31.300</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:31.300,0:08:32.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>512.06700000000001</v>
+      </c>
       <c r="B341" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:32.067</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:32.067,0:08:33.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>513.76700000000005</v>
+      </c>
       <c r="B342" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:33.767</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:33.767,0:08:34.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>514.29999999999995</v>
+      </c>
       <c r="B343" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:34.300</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:34.300,0:08:34.800,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>514.79999999999995</v>
+      </c>
       <c r="B344" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:34.800</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:34.800,0:08:36.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>516.33299999999997</v>
+      </c>
       <c r="B345" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:36.333</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:36.333,0:08:37.733,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>517.73299999999995</v>
+      </c>
       <c r="B346" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:37.733</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:37.733,0:08:38.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>518.36699999999996</v>
+      </c>
       <c r="B347" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:38.367</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:38.367,0:08:39.833,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>519.83299999999997</v>
+      </c>
       <c r="B348" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:39.833</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:39.833,0:08:41.533,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>521.53300000000002</v>
+      </c>
       <c r="B349" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:41.533</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:41.533,0:08:43.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>523.70000000000005</v>
+      </c>
       <c r="B350" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:43.700</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:43.700,0:08:44.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>524.86699999999996</v>
+      </c>
       <c r="B351" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:44.867</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:44.867,0:08:45.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>525.36699999999996</v>
+      </c>
       <c r="B352" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:45.367</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:45.367,0:08:46.667,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>526.66700000000003</v>
+      </c>
       <c r="B353" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:46.667</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:46.667,0:08:47.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>527.76700000000005</v>
+      </c>
       <c r="B354" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:47.767</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:47.767,0:08:48.433,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>528.43299999999999</v>
+      </c>
       <c r="B355" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:48.433</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:48.433,0:08:49.500,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>529.5</v>
+      </c>
       <c r="B356" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:49.500</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:49.500,0:08:50.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>530.76700000000005</v>
+      </c>
       <c r="B357" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:50.767</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:50.767,0:08:58.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>538.33299999999997</v>
+      </c>
       <c r="B358" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:08:58.333</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:08:58.333,0:09:01.533,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>541.53300000000002</v>
+      </c>
       <c r="B359" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:01.533</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:01.533,0:09:02.433,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>542.43299999999999</v>
+      </c>
       <c r="B360" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:02.433</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:02.433,0:09:03.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>543.46699999999998</v>
+      </c>
       <c r="B361" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:03.467</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:03.467,0:09:04.233,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>544.23299999999995</v>
+      </c>
       <c r="B362" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:04.233</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:04.233,0:09:04.667,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>544.66700000000003</v>
+      </c>
       <c r="B363" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:04.667</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:04.667,0:09:07.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>547.86699999999996</v>
+      </c>
       <c r="B364" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:07.867</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:07.867,0:09:14.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>554.4</v>
+      </c>
       <c r="B365" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:14.400</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:14.400,0:09:15.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>555.76700000000005</v>
+      </c>
       <c r="B366" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:15.767</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:15.767,0:09:16.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>556.20000000000005</v>
+      </c>
       <c r="B367" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:16.200</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:16.200,0:09:16.800,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>556.79999999999995</v>
+      </c>
       <c r="B368" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:16.800</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:16.800,0:09:17.267,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>557.26700000000005</v>
+      </c>
       <c r="B369" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:17.267</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:17.267,0:09:17.767,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>557.76700000000005</v>
+      </c>
       <c r="B370" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:17.767</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:17.767,0:09:18.500,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>558.5</v>
+      </c>
       <c r="B371" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:18.500</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:18.500,0:09:19.533,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>559.53300000000002</v>
+      </c>
       <c r="B372" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:19.533</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:19.533,0:09:20.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>560.4</v>
+      </c>
       <c r="B373" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:20.400</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:20.400,0:09:22.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>562.20000000000005</v>
+      </c>
       <c r="B374" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:22.200</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:22.200,0:09:23.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>563.33299999999997</v>
+      </c>
       <c r="B375" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:23.333</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:23.333,0:09:24.433,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>564.43299999999999</v>
+      </c>
       <c r="B376" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:24.433</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:24.433,0:09:25.567,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>565.56700000000001</v>
+      </c>
       <c r="B377" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:25.567</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:25.567,0:09:27.133,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>567.13300000000004</v>
+      </c>
       <c r="B378" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:27.133</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:27.133,0:09:29.067,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>569.06700000000001</v>
+      </c>
       <c r="B379" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:29.067</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:29.067,0:09:30.133,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>570.13300000000004</v>
+      </c>
       <c r="B380" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:30.133</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:30.133,0:09:31.733,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>571.73299999999995</v>
+      </c>
       <c r="B381" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:31.733</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:31.733,0:09:31.900,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>571.9</v>
+      </c>
       <c r="B382" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:31.900</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:31.900,0:09:32.700,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>572.70000000000005</v>
+      </c>
       <c r="B383" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:32.700</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:32.700,0:09:33.867,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>573.86699999999996</v>
+      </c>
       <c r="B384" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:33.867</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:33.867,0:09:35.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>575.46699999999998</v>
+      </c>
       <c r="B385" t="str">
         <f t="shared" si="10"/>
-        <v>0:00:00.000</v>
+        <v>0:09:35.467</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="11"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:35.467,0:09:37.400,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>577.4</v>
+      </c>
       <c r="B386" t="str">
         <f t="shared" ref="B386:B449" si="12">TEXT(ROUNDDOWN(A386/60/60,0),"0")&amp;":"&amp;TEXT(ROUNDDOWN(A386/60,0),"00")&amp;":"&amp;TEXT(ROUND(MOD(A386,60),3),"00.000")</f>
-        <v>0:00:00.000</v>
+        <v>0:09:37.400</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" ref="C386:C413" si="13">"Dialogue: 2,"&amp;B386&amp;","&amp;B387&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:37.400,0:09:38.833,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>578.83299999999997</v>
+      </c>
       <c r="B387" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:38.833</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:38.833,0:09:40.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>580.03300000000002</v>
+      </c>
       <c r="B388" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:40.033</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:40.033,0:09:42.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>582.20000000000005</v>
+      </c>
       <c r="B389" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:42.200</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:42.200,0:09:43.100,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>583.1</v>
+      </c>
       <c r="B390" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:43.100</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:43.100,0:09:44.133,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>584.13300000000004</v>
+      </c>
       <c r="B391" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:44.133</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:44.133,0:09:45.367,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>585.36699999999996</v>
+      </c>
       <c r="B392" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:45.367</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:45.367,0:09:46.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>586.03300000000002</v>
+      </c>
       <c r="B393" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:46.033</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:46.033,0:09:47.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>587</v>
+      </c>
       <c r="B394" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:47.000</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:47.000,0:09:47.667,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>587.66700000000003</v>
+      </c>
       <c r="B395" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:47.667</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:47.667,0:09:48.233,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>588.23299999999995</v>
+      </c>
       <c r="B396" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:48.233</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:48.233,0:09:49.600,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>589.6</v>
+      </c>
       <c r="B397" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:49.600</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:49.600,0:09:50.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>590.46699999999998</v>
+      </c>
       <c r="B398" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:50.467</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:50.467,0:09:51.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>591.29999999999995</v>
+      </c>
       <c r="B399" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:51.300</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:51.300,0:09:52.100,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>592.1</v>
+      </c>
       <c r="B400" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:52.100</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:52.100,0:09:52.933,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>592.93299999999999</v>
+      </c>
       <c r="B401" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:52.933</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:52.933,0:09:54.733,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>594.73299999999995</v>
+      </c>
       <c r="B402" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:54.733</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:54.733,0:09:55.933,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>595.93299999999999</v>
+      </c>
       <c r="B403" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:55.933</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:55.933,0:09:57.100,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>597.1</v>
+      </c>
       <c r="B404" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:57.100</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:57.100,0:09:58.600,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>598.6</v>
+      </c>
       <c r="B405" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:09:58.600</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:09:58.600,0:10:00.167,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>600.16700000000003</v>
+      </c>
       <c r="B406" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:00.167</v>
       </c>
       <c r="C406" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:00.167,0:10:01.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>601.29999999999995</v>
+      </c>
       <c r="B407" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:01.300</v>
       </c>
       <c r="C407" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:01.300,0:10:01.800,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>601.79999999999995</v>
+      </c>
       <c r="B408" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:01.800</v>
       </c>
       <c r="C408" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:01.800,0:10:03.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>603.46699999999998</v>
+      </c>
       <c r="B409" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:03.467</v>
       </c>
       <c r="C409" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:03.467,0:10:05.200,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>605.20000000000005</v>
+      </c>
       <c r="B410" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:05.200</v>
       </c>
       <c r="C410" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:05.200,0:10:05.800,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>605.79999999999995</v>
+      </c>
       <c r="B411" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:05.800</v>
       </c>
       <c r="C411" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:05.800,0:10:06.900,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>606.9</v>
+      </c>
       <c r="B412" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:06.900</v>
       </c>
       <c r="C412" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:06.900,0:10:08.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>608.03300000000002</v>
+      </c>
       <c r="B413" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:08.033</v>
       </c>
       <c r="C413" t="str">
         <f t="shared" si="13"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:08.033,0:10:10.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>610.29999999999995</v>
+      </c>
       <c r="B414" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:10.300</v>
       </c>
       <c r="C414" t="str">
         <f>"Dialogue: 2,"&amp;B414&amp;","&amp;B414&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:10.300,0:10:10.300,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>612.16700000000003</v>
+      </c>
       <c r="B415" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:12.167</v>
       </c>
       <c r="C415" t="str">
         <f t="shared" ref="C415:C478" si="14">"Dialogue: 2,"&amp;B415&amp;","&amp;B415&amp;",Default,,0,0,0,,"</f>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:12.167,0:10:12.167,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>613.46699999999998</v>
+      </c>
       <c r="B416" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:13.467</v>
       </c>
       <c r="C416" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:13.467,0:10:13.467,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>615</v>
+      </c>
       <c r="B417" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:15.000</v>
       </c>
       <c r="C417" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:15.000,0:10:15.000,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>616.33299999999997</v>
+      </c>
       <c r="B418" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:16.333</v>
       </c>
       <c r="C418" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:16.333,0:10:16.333,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>617.03300000000002</v>
+      </c>
       <c r="B419" t="str">
         <f t="shared" si="12"/>
-        <v>0:00:00.000</v>
+        <v>0:10:17.033</v>
       </c>
       <c r="C419" t="str">
         <f t="shared" si="14"/>
-        <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
-      </c>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Dialogue: 2,0:10:17.033,0:10:17.033,Default,,0,0,0,,</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B420" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5226,7 +5859,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B421" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5236,7 +5869,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B422" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5246,7 +5879,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B423" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5256,7 +5889,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B424" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5266,7 +5899,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B425" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5276,7 +5909,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B426" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5286,7 +5919,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B427" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5296,7 +5929,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B428" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5306,7 +5939,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B429" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5316,7 +5949,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B430" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5326,7 +5959,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B431" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
@@ -5336,7 +5969,7 @@
         <v>Dialogue: 2,0:00:00.000,0:00:00.000,Default,,0,0,0,,</v>
       </c>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B432" t="str">
         <f t="shared" si="12"/>
         <v>0:00:00.000</v>
